--- a/data/trans_orig/P33_1_R-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P33_1_R-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B3EE58CF-4BAF-4B58-A0CF-2D1DDA1F7BE3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{57F0A2B7-5FB2-466F-B6B4-4602A3F162DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{2D1DB8FC-E90A-4ABE-AE8C-8E1652DABAAF}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{509EA14C-219F-49C4-9180-1E81C233CA9D}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -38,7 +38,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="86">
   <si>
-    <t>Sueño recomendado en 2023 (Tasa respuesta: 97,37%)</t>
+    <t>Población que duerme las horas de sueño recomendadas por la Sociedad Española del Sueño en 2023 (Tasa respuesta: 97,37%)</t>
   </si>
   <si>
     <t>Hombre</t>
@@ -74,25 +74,28 @@
     <t>65,88%</t>
   </si>
   <si>
-    <t>62,11%</t>
-  </si>
-  <si>
-    <t>69,4%</t>
+    <t>61,92%</t>
+  </si>
+  <si>
+    <t>69,42%</t>
   </si>
   <si>
     <t>59,77%</t>
   </si>
   <si>
-    <t>56,88%</t>
-  </si>
-  <si>
-    <t>62,69%</t>
+    <t>57,08%</t>
+  </si>
+  <si>
+    <t>62,54%</t>
   </si>
   <si>
     <t>62,2%</t>
   </si>
   <si>
-    <t>64,55%</t>
+    <t>59,86%</t>
+  </si>
+  <si>
+    <t>64,49%</t>
   </si>
   <si>
     <t>No</t>
@@ -101,25 +104,28 @@
     <t>34,12%</t>
   </si>
   <si>
-    <t>30,6%</t>
-  </si>
-  <si>
-    <t>37,89%</t>
+    <t>30,58%</t>
+  </si>
+  <si>
+    <t>38,08%</t>
   </si>
   <si>
     <t>40,23%</t>
   </si>
   <si>
-    <t>37,31%</t>
-  </si>
-  <si>
-    <t>43,12%</t>
+    <t>37,46%</t>
+  </si>
+  <si>
+    <t>42,92%</t>
   </si>
   <si>
     <t>37,8%</t>
   </si>
   <si>
-    <t>35,45%</t>
+    <t>35,51%</t>
+  </si>
+  <si>
+    <t>40,14%</t>
   </si>
   <si>
     <t>100%</t>
@@ -131,25 +137,25 @@
     <t>75,8%</t>
   </si>
   <si>
-    <t>73,76%</t>
-  </si>
-  <si>
-    <t>78,19%</t>
+    <t>73,51%</t>
+  </si>
+  <si>
+    <t>78,29%</t>
   </si>
   <si>
     <t>66,89%</t>
   </si>
   <si>
-    <t>53,13%</t>
-  </si>
-  <si>
-    <t>71,2%</t>
+    <t>53,72%</t>
+  </si>
+  <si>
+    <t>70,92%</t>
   </si>
   <si>
     <t>71,24%</t>
   </si>
   <si>
-    <t>64,58%</t>
+    <t>64,93%</t>
   </si>
   <si>
     <t>73,72%</t>
@@ -158,19 +164,19 @@
     <t>24,2%</t>
   </si>
   <si>
-    <t>21,81%</t>
-  </si>
-  <si>
-    <t>26,24%</t>
+    <t>21,71%</t>
+  </si>
+  <si>
+    <t>26,49%</t>
   </si>
   <si>
     <t>33,11%</t>
   </si>
   <si>
-    <t>28,8%</t>
-  </si>
-  <si>
-    <t>46,87%</t>
+    <t>29,08%</t>
+  </si>
+  <si>
+    <t>46,28%</t>
   </si>
   <si>
     <t>28,76%</t>
@@ -179,7 +185,7 @@
     <t>26,28%</t>
   </si>
   <si>
-    <t>35,42%</t>
+    <t>35,07%</t>
   </si>
   <si>
     <t>Universitarios</t>
@@ -188,109 +194,103 @@
     <t>73,74%</t>
   </si>
   <si>
-    <t>69,89%</t>
-  </si>
-  <si>
-    <t>77,48%</t>
+    <t>69,56%</t>
+  </si>
+  <si>
+    <t>77,52%</t>
   </si>
   <si>
     <t>69,24%</t>
   </si>
   <si>
-    <t>66,26%</t>
-  </si>
-  <si>
-    <t>72,24%</t>
+    <t>65,66%</t>
+  </si>
+  <si>
+    <t>72,26%</t>
   </si>
   <si>
     <t>71,42%</t>
   </si>
   <si>
-    <t>68,77%</t>
-  </si>
-  <si>
-    <t>73,8%</t>
+    <t>68,66%</t>
+  </si>
+  <si>
+    <t>74,02%</t>
   </si>
   <si>
     <t>26,26%</t>
   </si>
   <si>
-    <t>22,52%</t>
-  </si>
-  <si>
-    <t>30,11%</t>
+    <t>22,48%</t>
+  </si>
+  <si>
+    <t>30,44%</t>
   </si>
   <si>
     <t>30,76%</t>
   </si>
   <si>
-    <t>27,76%</t>
-  </si>
-  <si>
-    <t>33,74%</t>
+    <t>27,74%</t>
+  </si>
+  <si>
+    <t>34,34%</t>
   </si>
   <si>
     <t>28,58%</t>
   </si>
   <si>
-    <t>26,2%</t>
-  </si>
-  <si>
-    <t>31,23%</t>
+    <t>25,98%</t>
+  </si>
+  <si>
+    <t>31,34%</t>
   </si>
   <si>
     <t>73,79%</t>
   </si>
   <si>
-    <t>72,16%</t>
-  </si>
-  <si>
-    <t>75,74%</t>
+    <t>71,99%</t>
+  </si>
+  <si>
+    <t>75,62%</t>
   </si>
   <si>
     <t>65,8%</t>
   </si>
   <si>
-    <t>58,75%</t>
-  </si>
-  <si>
-    <t>68,22%</t>
-  </si>
-  <si>
-    <t>69,56%</t>
-  </si>
-  <si>
-    <t>65,03%</t>
-  </si>
-  <si>
-    <t>71,11%</t>
+    <t>57,74%</t>
+  </si>
+  <si>
+    <t>68,34%</t>
+  </si>
+  <si>
+    <t>65,39%</t>
+  </si>
+  <si>
+    <t>71,15%</t>
   </si>
   <si>
     <t>26,21%</t>
   </si>
   <si>
-    <t>24,26%</t>
-  </si>
-  <si>
-    <t>27,84%</t>
+    <t>24,38%</t>
+  </si>
+  <si>
+    <t>28,01%</t>
   </si>
   <si>
     <t>34,2%</t>
   </si>
   <si>
-    <t>31,78%</t>
-  </si>
-  <si>
-    <t>41,25%</t>
-  </si>
-  <si>
-    <t>30,44%</t>
-  </si>
-  <si>
-    <t>28,89%</t>
-  </si>
-  <si>
-    <t>34,97%</t>
+    <t>31,66%</t>
+  </si>
+  <si>
+    <t>42,26%</t>
+  </si>
+  <si>
+    <t>28,85%</t>
+  </si>
+  <si>
+    <t>34,61%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -705,7 +705,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A3F639B3-A810-4FFD-88C7-DAC5462C3CF4}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5E69FD67-0177-4F42-B16E-C8C576F94756}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -862,16 +862,16 @@
         <v>17</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C5" s="7">
         <v>236</v>
@@ -880,13 +880,13 @@
         <v>179356</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="H5" s="7">
         <v>572</v>
@@ -895,13 +895,13 @@
         <v>321161</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="M5" s="7">
         <v>808</v>
@@ -910,13 +910,13 @@
         <v>500516</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -931,13 +931,13 @@
         <v>525720</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="H6" s="7">
         <v>1367</v>
@@ -946,13 +946,13 @@
         <v>798374</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="M6" s="7">
         <v>2040</v>
@@ -961,18 +961,18 @@
         <v>1324094</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>10</v>
@@ -984,13 +984,13 @@
         <v>1580942</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="H7" s="7">
         <v>1872</v>
@@ -999,13 +999,13 @@
         <v>1460038</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="M7" s="7">
         <v>3277</v>
@@ -1014,19 +1014,19 @@
         <v>3040979</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C8" s="7">
         <v>543</v>
@@ -1035,13 +1035,13 @@
         <v>504644</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="H8" s="7">
         <v>965</v>
@@ -1050,13 +1050,13 @@
         <v>722798</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="M8" s="7">
         <v>1508</v>
@@ -1065,13 +1065,13 @@
         <v>1227442</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -1086,13 +1086,13 @@
         <v>2085586</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="H9" s="7">
         <v>2837</v>
@@ -1101,13 +1101,13 @@
         <v>2182836</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="M9" s="7">
         <v>4785</v>
@@ -1116,18 +1116,18 @@
         <v>4268421</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -1139,13 +1139,13 @@
         <v>489876</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="H10" s="7">
         <v>671</v>
@@ -1154,13 +1154,13 @@
         <v>489622</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="M10" s="7">
         <v>1168</v>
@@ -1169,19 +1169,19 @@
         <v>979498</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C11" s="7">
         <v>175</v>
@@ -1190,13 +1190,13 @@
         <v>174410</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="H11" s="7">
         <v>323</v>
@@ -1205,13 +1205,13 @@
         <v>217527</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="M11" s="7">
         <v>498</v>
@@ -1220,13 +1220,13 @@
         <v>391937</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -1241,13 +1241,13 @@
         <v>664286</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="H12" s="7">
         <v>994</v>
@@ -1256,13 +1256,13 @@
         <v>707149</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="M12" s="7">
         <v>1666</v>
@@ -1271,13 +1271,13 @@
         <v>1371435</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -1294,28 +1294,28 @@
         <v>2417182</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="H13" s="7">
         <v>3338</v>
       </c>
       <c r="I13" s="7">
-        <v>2426873</v>
+        <v>2426872</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="M13" s="7">
         <v>5677</v>
@@ -1324,19 +1324,19 @@
         <v>4844054</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>73</v>
+        <v>52</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C14" s="7">
         <v>954</v>
@@ -1345,13 +1345,13 @@
         <v>858410</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="H14" s="7">
         <v>1860</v>
@@ -1360,13 +1360,13 @@
         <v>1261486</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="M14" s="7">
         <v>2814</v>
@@ -1375,7 +1375,7 @@
         <v>2119896</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>82</v>
+        <v>62</v>
       </c>
       <c r="P14" s="7" t="s">
         <v>83</v>
@@ -1396,28 +1396,28 @@
         <v>3275592</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="H15" s="7">
         <v>5198</v>
       </c>
       <c r="I15" s="7">
-        <v>3688359</v>
+        <v>3688358</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="M15" s="7">
         <v>8491</v>
@@ -1426,13 +1426,13 @@
         <v>6963950</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">

--- a/data/trans_orig/P33_1_R-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P33_1_R-Estudios-trans_orig.xlsx
@@ -8,12 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{57F0A2B7-5FB2-466F-B6B4-4602A3F162DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{223D14DA-787C-4481-8218-C2AB3423EB34}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{509EA14C-219F-49C4-9180-1E81C233CA9D}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{B433DD78-B72E-4BCA-A952-C0D08F903A62}"/>
   </bookViews>
   <sheets>
-    <sheet name="2023" sheetId="2" r:id="rId1"/>
+    <sheet name="2007" sheetId="2" r:id="rId1"/>
+    <sheet name="2012" sheetId="3" r:id="rId2"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
+    <sheet name="2023" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,264 +39,885 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="576" uniqueCount="293">
+  <si>
+    <t>Población que duerme las horas de sueño recomendadas por la Sociedad Española del Sueño en 2007 (Tasa respuesta: 98,92%)</t>
+  </si>
+  <si>
+    <t>Hombre</t>
+  </si>
+  <si>
+    <t>Mujer</t>
+  </si>
+  <si>
+    <t>Total</t>
+  </si>
+  <si>
+    <t>n (muestra)</t>
+  </si>
+  <si>
+    <t>N (estimada)</t>
+  </si>
+  <si>
+    <t>Estimación puntual</t>
+  </si>
+  <si>
+    <t>lím inf IC</t>
+  </si>
+  <si>
+    <t>lím sup IC</t>
+  </si>
+  <si>
+    <t>Primarios</t>
+  </si>
+  <si>
+    <t>Sí</t>
+  </si>
+  <si>
+    <t>73,03%</t>
+  </si>
+  <si>
+    <t>70,31%</t>
+  </si>
+  <si>
+    <t>75,64%</t>
+  </si>
+  <si>
+    <t>65,65%</t>
+  </si>
+  <si>
+    <t>63,11%</t>
+  </si>
+  <si>
+    <t>68,19%</t>
+  </si>
+  <si>
+    <t>68,88%</t>
+  </si>
+  <si>
+    <t>67,01%</t>
+  </si>
+  <si>
+    <t>70,83%</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>26,97%</t>
+  </si>
+  <si>
+    <t>24,36%</t>
+  </si>
+  <si>
+    <t>29,69%</t>
+  </si>
+  <si>
+    <t>34,35%</t>
+  </si>
+  <si>
+    <t>31,81%</t>
+  </si>
+  <si>
+    <t>36,89%</t>
+  </si>
+  <si>
+    <t>31,12%</t>
+  </si>
+  <si>
+    <t>29,17%</t>
+  </si>
+  <si>
+    <t>32,99%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Secundarios</t>
+  </si>
+  <si>
+    <t>85,96%</t>
+  </si>
+  <si>
+    <t>84,11%</t>
+  </si>
+  <si>
+    <t>87,61%</t>
+  </si>
+  <si>
+    <t>82,27%</t>
+  </si>
+  <si>
+    <t>80,26%</t>
+  </si>
+  <si>
+    <t>84,23%</t>
+  </si>
+  <si>
+    <t>84,17%</t>
+  </si>
+  <si>
+    <t>82,75%</t>
+  </si>
+  <si>
+    <t>85,44%</t>
+  </si>
+  <si>
+    <t>14,04%</t>
+  </si>
+  <si>
+    <t>12,39%</t>
+  </si>
+  <si>
+    <t>15,89%</t>
+  </si>
+  <si>
+    <t>17,73%</t>
+  </si>
+  <si>
+    <t>15,77%</t>
+  </si>
+  <si>
+    <t>19,74%</t>
+  </si>
+  <si>
+    <t>15,83%</t>
+  </si>
+  <si>
+    <t>14,56%</t>
+  </si>
+  <si>
+    <t>17,25%</t>
+  </si>
+  <si>
+    <t>Universitarios</t>
+  </si>
+  <si>
+    <t>83,54%</t>
+  </si>
+  <si>
+    <t>79,84%</t>
+  </si>
+  <si>
+    <t>86,65%</t>
+  </si>
+  <si>
+    <t>83,47%</t>
+  </si>
+  <si>
+    <t>79,81%</t>
+  </si>
+  <si>
+    <t>86,64%</t>
+  </si>
+  <si>
+    <t>83,51%</t>
+  </si>
+  <si>
+    <t>80,79%</t>
+  </si>
+  <si>
+    <t>85,78%</t>
+  </si>
+  <si>
+    <t>16,46%</t>
+  </si>
+  <si>
+    <t>13,35%</t>
+  </si>
+  <si>
+    <t>20,16%</t>
+  </si>
+  <si>
+    <t>16,53%</t>
+  </si>
+  <si>
+    <t>13,36%</t>
+  </si>
+  <si>
+    <t>20,19%</t>
+  </si>
+  <si>
+    <t>16,49%</t>
+  </si>
+  <si>
+    <t>14,22%</t>
+  </si>
+  <si>
+    <t>19,21%</t>
+  </si>
+  <si>
+    <t>81,47%</t>
+  </si>
+  <si>
+    <t>80,08%</t>
+  </si>
+  <si>
+    <t>83,06%</t>
+  </si>
+  <si>
+    <t>75,96%</t>
+  </si>
+  <si>
+    <t>74,28%</t>
+  </si>
+  <si>
+    <t>77,33%</t>
+  </si>
+  <si>
+    <t>78,66%</t>
+  </si>
+  <si>
+    <t>77,57%</t>
+  </si>
+  <si>
+    <t>79,67%</t>
+  </si>
+  <si>
+    <t>18,53%</t>
+  </si>
+  <si>
+    <t>16,94%</t>
+  </si>
+  <si>
+    <t>19,92%</t>
+  </si>
+  <si>
+    <t>24,04%</t>
+  </si>
+  <si>
+    <t>22,67%</t>
+  </si>
+  <si>
+    <t>25,72%</t>
+  </si>
+  <si>
+    <t>21,34%</t>
+  </si>
+  <si>
+    <t>20,33%</t>
+  </si>
+  <si>
+    <t>22,43%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población que duerme las horas de sueño recomendadas por la Sociedad Española del Sueño en 2012 (Tasa respuesta: 99,68%)</t>
+  </si>
+  <si>
+    <t>65,32%</t>
+  </si>
+  <si>
+    <t>62,15%</t>
+  </si>
+  <si>
+    <t>68,38%</t>
+  </si>
+  <si>
+    <t>56,56%</t>
+  </si>
+  <si>
+    <t>53,93%</t>
+  </si>
+  <si>
+    <t>59,74%</t>
+  </si>
+  <si>
+    <t>60,25%</t>
+  </si>
+  <si>
+    <t>58,18%</t>
+  </si>
+  <si>
+    <t>62,4%</t>
+  </si>
+  <si>
+    <t>34,68%</t>
+  </si>
+  <si>
+    <t>31,62%</t>
+  </si>
+  <si>
+    <t>37,85%</t>
+  </si>
+  <si>
+    <t>43,44%</t>
+  </si>
+  <si>
+    <t>40,26%</t>
+  </si>
+  <si>
+    <t>46,07%</t>
+  </si>
+  <si>
+    <t>39,75%</t>
+  </si>
+  <si>
+    <t>37,6%</t>
+  </si>
+  <si>
+    <t>41,82%</t>
+  </si>
+  <si>
+    <t>77,67%</t>
+  </si>
+  <si>
+    <t>75,88%</t>
+  </si>
+  <si>
+    <t>79,49%</t>
+  </si>
+  <si>
+    <t>72,18%</t>
+  </si>
+  <si>
+    <t>69,99%</t>
+  </si>
+  <si>
+    <t>74,46%</t>
+  </si>
+  <si>
+    <t>75,08%</t>
+  </si>
+  <si>
+    <t>73,65%</t>
+  </si>
+  <si>
+    <t>76,51%</t>
+  </si>
+  <si>
+    <t>22,33%</t>
+  </si>
+  <si>
+    <t>20,51%</t>
+  </si>
+  <si>
+    <t>24,12%</t>
+  </si>
+  <si>
+    <t>27,82%</t>
+  </si>
+  <si>
+    <t>25,54%</t>
+  </si>
+  <si>
+    <t>30,01%</t>
+  </si>
+  <si>
+    <t>24,92%</t>
+  </si>
+  <si>
+    <t>23,49%</t>
+  </si>
+  <si>
+    <t>26,35%</t>
+  </si>
+  <si>
+    <t>77,42%</t>
+  </si>
+  <si>
+    <t>73,14%</t>
+  </si>
+  <si>
+    <t>81,22%</t>
+  </si>
+  <si>
+    <t>81,1%</t>
+  </si>
+  <si>
+    <t>77,34%</t>
+  </si>
+  <si>
+    <t>84,71%</t>
+  </si>
+  <si>
+    <t>79,21%</t>
+  </si>
+  <si>
+    <t>76,24%</t>
+  </si>
+  <si>
+    <t>81,88%</t>
+  </si>
+  <si>
+    <t>22,58%</t>
+  </si>
+  <si>
+    <t>18,78%</t>
+  </si>
+  <si>
+    <t>26,86%</t>
+  </si>
+  <si>
+    <t>18,9%</t>
+  </si>
+  <si>
+    <t>15,29%</t>
+  </si>
+  <si>
+    <t>22,66%</t>
+  </si>
+  <si>
+    <t>20,79%</t>
+  </si>
+  <si>
+    <t>18,12%</t>
+  </si>
+  <si>
+    <t>23,76%</t>
+  </si>
+  <si>
+    <t>74,12%</t>
+  </si>
+  <si>
+    <t>72,35%</t>
+  </si>
+  <si>
+    <t>67,45%</t>
+  </si>
+  <si>
+    <t>65,71%</t>
+  </si>
+  <si>
+    <t>68,9%</t>
+  </si>
+  <si>
+    <t>70,72%</t>
+  </si>
+  <si>
+    <t>69,62%</t>
+  </si>
+  <si>
+    <t>71,81%</t>
+  </si>
+  <si>
+    <t>25,88%</t>
+  </si>
+  <si>
+    <t>27,65%</t>
+  </si>
+  <si>
+    <t>32,55%</t>
+  </si>
+  <si>
+    <t>31,1%</t>
+  </si>
+  <si>
+    <t>34,29%</t>
+  </si>
+  <si>
+    <t>29,28%</t>
+  </si>
+  <si>
+    <t>28,19%</t>
+  </si>
+  <si>
+    <t>30,38%</t>
+  </si>
+  <si>
+    <t>Población que duerme las horas de sueño recomendadas por la Sociedad Española del Sueño en 2016 (Tasa respuesta: 99,71%)</t>
+  </si>
+  <si>
+    <t>70,38%</t>
+  </si>
+  <si>
+    <t>67,22%</t>
+  </si>
+  <si>
+    <t>59,94%</t>
+  </si>
+  <si>
+    <t>56,6%</t>
+  </si>
+  <si>
+    <t>62,91%</t>
+  </si>
+  <si>
+    <t>64,46%</t>
+  </si>
+  <si>
+    <t>62,22%</t>
+  </si>
+  <si>
+    <t>66,7%</t>
+  </si>
+  <si>
+    <t>29,62%</t>
+  </si>
+  <si>
+    <t>32,78%</t>
+  </si>
+  <si>
+    <t>40,06%</t>
+  </si>
+  <si>
+    <t>37,09%</t>
+  </si>
+  <si>
+    <t>43,4%</t>
+  </si>
+  <si>
+    <t>35,54%</t>
+  </si>
+  <si>
+    <t>33,3%</t>
+  </si>
+  <si>
+    <t>37,78%</t>
+  </si>
+  <si>
+    <t>78,43%</t>
+  </si>
+  <si>
+    <t>76,31%</t>
+  </si>
+  <si>
+    <t>80,13%</t>
+  </si>
+  <si>
+    <t>75,15%</t>
+  </si>
+  <si>
+    <t>77,05%</t>
+  </si>
+  <si>
+    <t>76,83%</t>
+  </si>
+  <si>
+    <t>75,44%</t>
+  </si>
+  <si>
+    <t>78,16%</t>
+  </si>
+  <si>
+    <t>21,57%</t>
+  </si>
+  <si>
+    <t>19,87%</t>
+  </si>
+  <si>
+    <t>23,69%</t>
+  </si>
+  <si>
+    <t>24,85%</t>
+  </si>
+  <si>
+    <t>22,95%</t>
+  </si>
+  <si>
+    <t>23,17%</t>
+  </si>
+  <si>
+    <t>21,84%</t>
+  </si>
+  <si>
+    <t>24,56%</t>
+  </si>
+  <si>
+    <t>79,17%</t>
+  </si>
+  <si>
+    <t>75,47%</t>
+  </si>
+  <si>
+    <t>83,04%</t>
+  </si>
+  <si>
+    <t>78,63%</t>
+  </si>
+  <si>
+    <t>75,0%</t>
+  </si>
+  <si>
+    <t>81,99%</t>
+  </si>
+  <si>
+    <t>78,9%</t>
+  </si>
+  <si>
+    <t>76,22%</t>
+  </si>
+  <si>
+    <t>20,83%</t>
+  </si>
+  <si>
+    <t>16,96%</t>
+  </si>
+  <si>
+    <t>24,53%</t>
+  </si>
+  <si>
+    <t>21,37%</t>
+  </si>
+  <si>
+    <t>18,01%</t>
+  </si>
+  <si>
+    <t>25,0%</t>
+  </si>
+  <si>
+    <t>21,1%</t>
+  </si>
+  <si>
+    <t>23,78%</t>
+  </si>
+  <si>
+    <t>76,75%</t>
+  </si>
+  <si>
+    <t>75,17%</t>
+  </si>
+  <si>
+    <t>78,23%</t>
+  </si>
+  <si>
+    <t>71,43%</t>
+  </si>
+  <si>
+    <t>69,76%</t>
+  </si>
+  <si>
+    <t>72,98%</t>
+  </si>
+  <si>
+    <t>74,04%</t>
+  </si>
+  <si>
+    <t>72,85%</t>
+  </si>
+  <si>
+    <t>75,1%</t>
+  </si>
+  <si>
+    <t>23,25%</t>
+  </si>
+  <si>
+    <t>21,77%</t>
+  </si>
+  <si>
+    <t>24,83%</t>
+  </si>
+  <si>
+    <t>28,57%</t>
+  </si>
+  <si>
+    <t>27,02%</t>
+  </si>
+  <si>
+    <t>30,24%</t>
+  </si>
+  <si>
+    <t>25,96%</t>
+  </si>
+  <si>
+    <t>24,9%</t>
+  </si>
+  <si>
+    <t>27,15%</t>
+  </si>
   <si>
     <t>Población que duerme las horas de sueño recomendadas por la Sociedad Española del Sueño en 2023 (Tasa respuesta: 97,37%)</t>
   </si>
   <si>
-    <t>Hombre</t>
-  </si>
-  <si>
-    <t>Mujer</t>
-  </si>
-  <si>
-    <t>Total</t>
-  </si>
-  <si>
-    <t>n (muestra)</t>
-  </si>
-  <si>
-    <t>N (estimada)</t>
-  </si>
-  <si>
-    <t>Estimación puntual</t>
-  </si>
-  <si>
-    <t>lím inf IC</t>
-  </si>
-  <si>
-    <t>lím sup IC</t>
-  </si>
-  <si>
-    <t>Primarios</t>
-  </si>
-  <si>
-    <t>Sí</t>
-  </si>
-  <si>
-    <t>65,88%</t>
-  </si>
-  <si>
-    <t>61,92%</t>
-  </si>
-  <si>
-    <t>69,42%</t>
-  </si>
-  <si>
-    <t>59,77%</t>
-  </si>
-  <si>
-    <t>57,08%</t>
-  </si>
-  <si>
-    <t>62,54%</t>
-  </si>
-  <si>
-    <t>62,2%</t>
-  </si>
-  <si>
-    <t>59,86%</t>
-  </si>
-  <si>
-    <t>64,49%</t>
-  </si>
-  <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t>34,12%</t>
-  </si>
-  <si>
-    <t>30,58%</t>
-  </si>
-  <si>
-    <t>38,08%</t>
-  </si>
-  <si>
-    <t>40,23%</t>
-  </si>
-  <si>
-    <t>37,46%</t>
-  </si>
-  <si>
-    <t>42,92%</t>
-  </si>
-  <si>
-    <t>37,8%</t>
-  </si>
-  <si>
-    <t>35,51%</t>
-  </si>
-  <si>
-    <t>40,14%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Secundarios</t>
+    <t>66,73%</t>
+  </si>
+  <si>
+    <t>62,96%</t>
+  </si>
+  <si>
+    <t>60,1%</t>
+  </si>
+  <si>
+    <t>57,36%</t>
+  </si>
+  <si>
+    <t>62,77%</t>
+  </si>
+  <si>
+    <t>62,74%</t>
+  </si>
+  <si>
+    <t>60,28%</t>
+  </si>
+  <si>
+    <t>64,99%</t>
+  </si>
+  <si>
+    <t>33,27%</t>
+  </si>
+  <si>
+    <t>37,04%</t>
+  </si>
+  <si>
+    <t>39,9%</t>
+  </si>
+  <si>
+    <t>37,23%</t>
+  </si>
+  <si>
+    <t>42,64%</t>
+  </si>
+  <si>
+    <t>37,26%</t>
+  </si>
+  <si>
+    <t>35,01%</t>
+  </si>
+  <si>
+    <t>39,72%</t>
+  </si>
+  <si>
+    <t>77,6%</t>
+  </si>
+  <si>
+    <t>79,87%</t>
+  </si>
+  <si>
+    <t>68,59%</t>
+  </si>
+  <si>
+    <t>55,07%</t>
+  </si>
+  <si>
+    <t>72,78%</t>
+  </si>
+  <si>
+    <t>72,99%</t>
+  </si>
+  <si>
+    <t>66,55%</t>
+  </si>
+  <si>
+    <t>75,43%</t>
+  </si>
+  <si>
+    <t>22,4%</t>
+  </si>
+  <si>
+    <t>20,13%</t>
+  </si>
+  <si>
+    <t>31,41%</t>
+  </si>
+  <si>
+    <t>27,22%</t>
+  </si>
+  <si>
+    <t>44,93%</t>
+  </si>
+  <si>
+    <t>27,01%</t>
+  </si>
+  <si>
+    <t>24,57%</t>
+  </si>
+  <si>
+    <t>33,45%</t>
+  </si>
+  <si>
+    <t>77,3%</t>
+  </si>
+  <si>
+    <t>73,45%</t>
+  </si>
+  <si>
+    <t>80,76%</t>
+  </si>
+  <si>
+    <t>72,59%</t>
+  </si>
+  <si>
+    <t>69,03%</t>
+  </si>
+  <si>
+    <t>75,31%</t>
+  </si>
+  <si>
+    <t>74,87%</t>
+  </si>
+  <si>
+    <t>72,24%</t>
+  </si>
+  <si>
+    <t>77,14%</t>
+  </si>
+  <si>
+    <t>22,7%</t>
+  </si>
+  <si>
+    <t>19,24%</t>
+  </si>
+  <si>
+    <t>26,55%</t>
+  </si>
+  <si>
+    <t>27,41%</t>
+  </si>
+  <si>
+    <t>24,69%</t>
+  </si>
+  <si>
+    <t>30,97%</t>
+  </si>
+  <si>
+    <t>25,13%</t>
+  </si>
+  <si>
+    <t>22,86%</t>
+  </si>
+  <si>
+    <t>27,76%</t>
   </si>
   <si>
     <t>75,8%</t>
   </si>
   <si>
-    <t>73,51%</t>
-  </si>
-  <si>
-    <t>78,29%</t>
-  </si>
-  <si>
-    <t>66,89%</t>
-  </si>
-  <si>
-    <t>53,72%</t>
-  </si>
-  <si>
-    <t>70,92%</t>
-  </si>
-  <si>
-    <t>71,24%</t>
-  </si>
-  <si>
-    <t>64,93%</t>
-  </si>
-  <si>
-    <t>73,72%</t>
+    <t>74,02%</t>
+  </si>
+  <si>
+    <t>77,5%</t>
+  </si>
+  <si>
+    <t>67,52%</t>
+  </si>
+  <si>
+    <t>59,15%</t>
+  </si>
+  <si>
+    <t>70,12%</t>
+  </si>
+  <si>
+    <t>71,41%</t>
+  </si>
+  <si>
+    <t>67,2%</t>
   </si>
   <si>
     <t>24,2%</t>
   </si>
   <si>
-    <t>21,71%</t>
-  </si>
-  <si>
-    <t>26,49%</t>
-  </si>
-  <si>
-    <t>33,11%</t>
-  </si>
-  <si>
-    <t>29,08%</t>
-  </si>
-  <si>
-    <t>46,28%</t>
-  </si>
-  <si>
-    <t>28,76%</t>
-  </si>
-  <si>
-    <t>26,28%</t>
-  </si>
-  <si>
-    <t>35,07%</t>
-  </si>
-  <si>
-    <t>Universitarios</t>
-  </si>
-  <si>
-    <t>73,74%</t>
-  </si>
-  <si>
-    <t>69,56%</t>
-  </si>
-  <si>
-    <t>77,52%</t>
-  </si>
-  <si>
-    <t>69,24%</t>
-  </si>
-  <si>
-    <t>65,66%</t>
-  </si>
-  <si>
-    <t>72,26%</t>
-  </si>
-  <si>
-    <t>71,42%</t>
-  </si>
-  <si>
-    <t>68,66%</t>
-  </si>
-  <si>
-    <t>74,02%</t>
-  </si>
-  <si>
-    <t>26,26%</t>
-  </si>
-  <si>
-    <t>22,48%</t>
-  </si>
-  <si>
-    <t>30,44%</t>
-  </si>
-  <si>
-    <t>30,76%</t>
-  </si>
-  <si>
-    <t>27,74%</t>
-  </si>
-  <si>
-    <t>34,34%</t>
-  </si>
-  <si>
-    <t>28,58%</t>
+    <t>22,5%</t>
   </si>
   <si>
     <t>25,98%</t>
   </si>
   <si>
-    <t>31,34%</t>
-  </si>
-  <si>
-    <t>73,79%</t>
-  </si>
-  <si>
-    <t>71,99%</t>
-  </si>
-  <si>
-    <t>75,62%</t>
-  </si>
-  <si>
-    <t>65,8%</t>
-  </si>
-  <si>
-    <t>57,74%</t>
-  </si>
-  <si>
-    <t>68,34%</t>
-  </si>
-  <si>
-    <t>65,39%</t>
-  </si>
-  <si>
-    <t>71,15%</t>
-  </si>
-  <si>
-    <t>26,21%</t>
-  </si>
-  <si>
-    <t>24,38%</t>
-  </si>
-  <si>
-    <t>28,01%</t>
-  </si>
-  <si>
-    <t>34,2%</t>
-  </si>
-  <si>
-    <t>31,66%</t>
-  </si>
-  <si>
-    <t>42,26%</t>
-  </si>
-  <si>
-    <t>28,85%</t>
-  </si>
-  <si>
-    <t>34,61%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+    <t>32,48%</t>
+  </si>
+  <si>
+    <t>29,88%</t>
+  </si>
+  <si>
+    <t>40,85%</t>
+  </si>
+  <si>
+    <t>28,59%</t>
+  </si>
+  <si>
+    <t>32,8%</t>
   </si>
 </sst>
 </file>
@@ -705,7 +1329,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5E69FD67-0177-4F42-B16E-C8C576F94756}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8ED49764-808D-40F2-A1E7-EA05BFC5695C}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -823,10 +1447,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>437</v>
+        <v>747</v>
       </c>
       <c r="D4" s="7">
-        <v>346364</v>
+        <v>744388</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -838,10 +1462,10 @@
         <v>13</v>
       </c>
       <c r="H4" s="7">
-        <v>795</v>
+        <v>850</v>
       </c>
       <c r="I4" s="7">
-        <v>477213</v>
+        <v>858924</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>14</v>
@@ -853,10 +1477,10 @@
         <v>16</v>
       </c>
       <c r="M4" s="7">
-        <v>1232</v>
+        <v>1597</v>
       </c>
       <c r="N4" s="7">
-        <v>823578</v>
+        <v>1603312</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>17</v>
@@ -874,10 +1498,10 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>236</v>
+        <v>280</v>
       </c>
       <c r="D5" s="7">
-        <v>179356</v>
+        <v>274940</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>21</v>
@@ -889,10 +1513,10 @@
         <v>23</v>
       </c>
       <c r="H5" s="7">
-        <v>572</v>
+        <v>434</v>
       </c>
       <c r="I5" s="7">
-        <v>321161</v>
+        <v>449465</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>24</v>
@@ -904,10 +1528,10 @@
         <v>26</v>
       </c>
       <c r="M5" s="7">
-        <v>808</v>
+        <v>714</v>
       </c>
       <c r="N5" s="7">
-        <v>500516</v>
+        <v>724405</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>27</v>
@@ -925,10 +1549,10 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>673</v>
+        <v>1027</v>
       </c>
       <c r="D6" s="7">
-        <v>525720</v>
+        <v>1019328</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>30</v>
@@ -940,10 +1564,10 @@
         <v>30</v>
       </c>
       <c r="H6" s="7">
-        <v>1367</v>
+        <v>1284</v>
       </c>
       <c r="I6" s="7">
-        <v>798374</v>
+        <v>1308389</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -955,10 +1579,10 @@
         <v>30</v>
       </c>
       <c r="M6" s="7">
-        <v>2040</v>
+        <v>2311</v>
       </c>
       <c r="N6" s="7">
-        <v>1324094</v>
+        <v>2327717</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>30</v>
@@ -978,10 +1602,10 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>1405</v>
+        <v>1396</v>
       </c>
       <c r="D7" s="7">
-        <v>1580942</v>
+        <v>1431575</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>32</v>
@@ -993,10 +1617,10 @@
         <v>34</v>
       </c>
       <c r="H7" s="7">
-        <v>1872</v>
+        <v>1270</v>
       </c>
       <c r="I7" s="7">
-        <v>1460038</v>
+        <v>1294358</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>35</v>
@@ -1008,10 +1632,10 @@
         <v>37</v>
       </c>
       <c r="M7" s="7">
-        <v>3277</v>
+        <v>2666</v>
       </c>
       <c r="N7" s="7">
-        <v>3040979</v>
+        <v>2725931</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>38</v>
@@ -1029,10 +1653,10 @@
         <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>543</v>
+        <v>223</v>
       </c>
       <c r="D8" s="7">
-        <v>504644</v>
+        <v>233768</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>41</v>
@@ -1044,10 +1668,10 @@
         <v>43</v>
       </c>
       <c r="H8" s="7">
-        <v>965</v>
+        <v>270</v>
       </c>
       <c r="I8" s="7">
-        <v>722798</v>
+        <v>278916</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>44</v>
@@ -1059,10 +1683,10 @@
         <v>46</v>
       </c>
       <c r="M8" s="7">
-        <v>1508</v>
+        <v>493</v>
       </c>
       <c r="N8" s="7">
-        <v>1227442</v>
+        <v>512685</v>
       </c>
       <c r="O8" s="7" t="s">
         <v>47</v>
@@ -1080,10 +1704,10 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>1948</v>
+        <v>1619</v>
       </c>
       <c r="D9" s="7">
-        <v>2085586</v>
+        <v>1665343</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>30</v>
@@ -1095,10 +1719,10 @@
         <v>30</v>
       </c>
       <c r="H9" s="7">
-        <v>2837</v>
+        <v>1540</v>
       </c>
       <c r="I9" s="7">
-        <v>2182836</v>
+        <v>1573274</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -1110,10 +1734,10 @@
         <v>30</v>
       </c>
       <c r="M9" s="7">
-        <v>4785</v>
+        <v>3159</v>
       </c>
       <c r="N9" s="7">
-        <v>4268421</v>
+        <v>3238616</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -1133,10 +1757,10 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>497</v>
+        <v>437</v>
       </c>
       <c r="D10" s="7">
-        <v>489876</v>
+        <v>455264</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>51</v>
@@ -1148,10 +1772,10 @@
         <v>53</v>
       </c>
       <c r="H10" s="7">
-        <v>671</v>
+        <v>376</v>
       </c>
       <c r="I10" s="7">
-        <v>489622</v>
+        <v>396858</v>
       </c>
       <c r="J10" s="7" t="s">
         <v>54</v>
@@ -1163,10 +1787,10 @@
         <v>56</v>
       </c>
       <c r="M10" s="7">
-        <v>1168</v>
+        <v>813</v>
       </c>
       <c r="N10" s="7">
-        <v>979498</v>
+        <v>852121</v>
       </c>
       <c r="O10" s="7" t="s">
         <v>57</v>
@@ -1184,10 +1808,10 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>175</v>
+        <v>83</v>
       </c>
       <c r="D11" s="7">
-        <v>174410</v>
+        <v>89670</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>60</v>
@@ -1199,10 +1823,10 @@
         <v>62</v>
       </c>
       <c r="H11" s="7">
-        <v>323</v>
+        <v>75</v>
       </c>
       <c r="I11" s="7">
-        <v>217527</v>
+        <v>78618</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>63</v>
@@ -1214,10 +1838,10 @@
         <v>65</v>
       </c>
       <c r="M11" s="7">
-        <v>498</v>
+        <v>158</v>
       </c>
       <c r="N11" s="7">
-        <v>391937</v>
+        <v>168288</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>66</v>
@@ -1235,10 +1859,10 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>672</v>
+        <v>520</v>
       </c>
       <c r="D12" s="7">
-        <v>664286</v>
+        <v>544934</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -1250,10 +1874,10 @@
         <v>30</v>
       </c>
       <c r="H12" s="7">
-        <v>994</v>
+        <v>451</v>
       </c>
       <c r="I12" s="7">
-        <v>707149</v>
+        <v>475476</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -1265,10 +1889,10 @@
         <v>30</v>
       </c>
       <c r="M12" s="7">
-        <v>1666</v>
+        <v>971</v>
       </c>
       <c r="N12" s="7">
-        <v>1371435</v>
+        <v>1020409</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -1288,10 +1912,10 @@
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>2339</v>
+        <v>2580</v>
       </c>
       <c r="D13" s="7">
-        <v>2417182</v>
+        <v>2631226</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>69</v>
@@ -1303,10 +1927,10 @@
         <v>71</v>
       </c>
       <c r="H13" s="7">
-        <v>3338</v>
+        <v>2496</v>
       </c>
       <c r="I13" s="7">
-        <v>2426872</v>
+        <v>2550138</v>
       </c>
       <c r="J13" s="7" t="s">
         <v>72</v>
@@ -1318,19 +1942,19 @@
         <v>74</v>
       </c>
       <c r="M13" s="7">
-        <v>5677</v>
+        <v>5076</v>
       </c>
       <c r="N13" s="7">
-        <v>4844054</v>
+        <v>5181365</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>52</v>
+        <v>75</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -1339,49 +1963,49 @@
         <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>954</v>
+        <v>586</v>
       </c>
       <c r="D14" s="7">
-        <v>858410</v>
+        <v>598379</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="H14" s="7">
-        <v>1860</v>
+        <v>779</v>
       </c>
       <c r="I14" s="7">
-        <v>1261486</v>
+        <v>807000</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="M14" s="7">
-        <v>2814</v>
+        <v>1365</v>
       </c>
       <c r="N14" s="7">
-        <v>2119896</v>
+        <v>1405378</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>62</v>
+        <v>84</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1390,6 +2014,2259 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
+        <v>3166</v>
+      </c>
+      <c r="D15" s="7">
+        <v>3229605</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H15" s="7">
+        <v>3275</v>
+      </c>
+      <c r="I15" s="7">
+        <v>3357138</v>
+      </c>
+      <c r="J15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M15" s="7">
+        <v>6441</v>
+      </c>
+      <c r="N15" s="7">
+        <v>6586743</v>
+      </c>
+      <c r="O15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q15" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>87</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A13:A15"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:G1"/>
+    <mergeCell ref="H1:L1"/>
+    <mergeCell ref="M1:Q1"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A7:A9"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BF3C06E2-7933-46BF-B1C8-47E5188EA50C}">
+  <dimension ref="A1:Q16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" sqref="A1:B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="17" width="14" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="B1" s="2"/>
+      <c r="C1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="I1" s="3"/>
+      <c r="J1" s="3"/>
+      <c r="K1" s="3"/>
+      <c r="L1" s="3"/>
+      <c r="M1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N1" s="3"/>
+      <c r="O1" s="3"/>
+      <c r="P1" s="3"/>
+      <c r="Q1" s="3"/>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A2" s="4"/>
+      <c r="B2" s="2"/>
+      <c r="C2" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="H2" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="I2" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="J2" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="K2" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="L2" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="M2" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="N2" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="O2" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="P2" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q2" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="6"/>
+      <c r="B3" s="7"/>
+      <c r="C3" s="7"/>
+      <c r="D3" s="7"/>
+      <c r="E3" s="7"/>
+      <c r="F3" s="7"/>
+      <c r="G3" s="7"/>
+      <c r="H3" s="7"/>
+      <c r="I3" s="7"/>
+      <c r="J3" s="7"/>
+      <c r="K3" s="7"/>
+      <c r="L3" s="7"/>
+      <c r="M3" s="7"/>
+      <c r="N3" s="7"/>
+      <c r="O3" s="7"/>
+      <c r="P3" s="7"/>
+      <c r="Q3" s="7"/>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" s="7">
+        <v>591</v>
+      </c>
+      <c r="D4" s="7">
+        <v>633099</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="G4" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="H4" s="7">
+        <v>701</v>
+      </c>
+      <c r="I4" s="7">
+        <v>754916</v>
+      </c>
+      <c r="J4" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="K4" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="L4" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="M4" s="7">
+        <v>1292</v>
+      </c>
+      <c r="N4" s="7">
+        <v>1388016</v>
+      </c>
+      <c r="O4" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="P4" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="Q4" s="7" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A5" s="1"/>
+      <c r="B5" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C5" s="7">
+        <v>312</v>
+      </c>
+      <c r="D5" s="7">
+        <v>336091</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="H5" s="7">
+        <v>543</v>
+      </c>
+      <c r="I5" s="7">
+        <v>579793</v>
+      </c>
+      <c r="J5" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="L5" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="M5" s="7">
+        <v>855</v>
+      </c>
+      <c r="N5" s="7">
+        <v>915883</v>
+      </c>
+      <c r="O5" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="P5" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="Q5" s="7" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A6" s="1"/>
+      <c r="B6" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C6" s="7">
+        <v>903</v>
+      </c>
+      <c r="D6" s="7">
+        <v>969190</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H6" s="7">
+        <v>1244</v>
+      </c>
+      <c r="I6" s="7">
+        <v>1334709</v>
+      </c>
+      <c r="J6" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K6" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L6" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M6" s="7">
+        <v>2147</v>
+      </c>
+      <c r="N6" s="7">
+        <v>2303899</v>
+      </c>
+      <c r="O6" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P6" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q6" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A7" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7" s="7">
+        <v>1435</v>
+      </c>
+      <c r="D7" s="7">
+        <v>1519436</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="G7" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="H7" s="7">
+        <v>1182</v>
+      </c>
+      <c r="I7" s="7">
+        <v>1264257</v>
+      </c>
+      <c r="J7" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="K7" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="L7" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="M7" s="7">
+        <v>2617</v>
+      </c>
+      <c r="N7" s="7">
+        <v>2783693</v>
+      </c>
+      <c r="O7" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="P7" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="Q7" s="7" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A8" s="1"/>
+      <c r="B8" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C8" s="7">
+        <v>414</v>
+      </c>
+      <c r="D8" s="7">
+        <v>436755</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="G8" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="H8" s="7">
+        <v>447</v>
+      </c>
+      <c r="I8" s="7">
+        <v>487282</v>
+      </c>
+      <c r="J8" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="K8" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="L8" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="M8" s="7">
+        <v>861</v>
+      </c>
+      <c r="N8" s="7">
+        <v>924037</v>
+      </c>
+      <c r="O8" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="P8" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="Q8" s="7" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A9" s="1"/>
+      <c r="B9" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C9" s="7">
+        <v>1849</v>
+      </c>
+      <c r="D9" s="7">
+        <v>1956191</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H9" s="7">
+        <v>1629</v>
+      </c>
+      <c r="I9" s="7">
+        <v>1751539</v>
+      </c>
+      <c r="J9" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K9" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L9" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M9" s="7">
+        <v>3478</v>
+      </c>
+      <c r="N9" s="7">
+        <v>3707730</v>
+      </c>
+      <c r="O9" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P9" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q9" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A10" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C10" s="7">
+        <v>342</v>
+      </c>
+      <c r="D10" s="7">
+        <v>372519</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="H10" s="7">
+        <v>332</v>
+      </c>
+      <c r="I10" s="7">
+        <v>371945</v>
+      </c>
+      <c r="J10" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="L10" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="M10" s="7">
+        <v>674</v>
+      </c>
+      <c r="N10" s="7">
+        <v>744464</v>
+      </c>
+      <c r="O10" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="P10" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="Q10" s="7" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A11" s="1"/>
+      <c r="B11" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C11" s="7">
+        <v>96</v>
+      </c>
+      <c r="D11" s="7">
+        <v>108662</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="H11" s="7">
+        <v>80</v>
+      </c>
+      <c r="I11" s="7">
+        <v>86686</v>
+      </c>
+      <c r="J11" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="L11" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="M11" s="7">
+        <v>176</v>
+      </c>
+      <c r="N11" s="7">
+        <v>195348</v>
+      </c>
+      <c r="O11" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="P11" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="Q11" s="7" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A12" s="1"/>
+      <c r="B12" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C12" s="7">
+        <v>438</v>
+      </c>
+      <c r="D12" s="7">
+        <v>481181</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H12" s="7">
+        <v>412</v>
+      </c>
+      <c r="I12" s="7">
+        <v>458631</v>
+      </c>
+      <c r="J12" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K12" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L12" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M12" s="7">
+        <v>850</v>
+      </c>
+      <c r="N12" s="7">
+        <v>939812</v>
+      </c>
+      <c r="O12" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P12" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q12" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A13" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C13" s="7">
+        <v>2368</v>
+      </c>
+      <c r="D13" s="7">
+        <v>2525055</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="H13" s="7">
+        <v>2215</v>
+      </c>
+      <c r="I13" s="7">
+        <v>2391118</v>
+      </c>
+      <c r="J13" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="L13" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="M13" s="7">
+        <v>4583</v>
+      </c>
+      <c r="N13" s="7">
+        <v>4916174</v>
+      </c>
+      <c r="O13" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="P13" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="Q13" s="7" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A14" s="1"/>
+      <c r="B14" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C14" s="7">
+        <v>822</v>
+      </c>
+      <c r="D14" s="7">
+        <v>881507</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="H14" s="7">
+        <v>1070</v>
+      </c>
+      <c r="I14" s="7">
+        <v>1153761</v>
+      </c>
+      <c r="J14" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="L14" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="M14" s="7">
+        <v>1892</v>
+      </c>
+      <c r="N14" s="7">
+        <v>2035268</v>
+      </c>
+      <c r="O14" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="Q14" s="7" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A15" s="1"/>
+      <c r="B15" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C15" s="7">
+        <v>3190</v>
+      </c>
+      <c r="D15" s="7">
+        <v>3406562</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H15" s="7">
+        <v>3285</v>
+      </c>
+      <c r="I15" s="7">
+        <v>3544879</v>
+      </c>
+      <c r="J15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M15" s="7">
+        <v>6475</v>
+      </c>
+      <c r="N15" s="7">
+        <v>6951442</v>
+      </c>
+      <c r="O15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q15" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>87</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A13:A15"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:G1"/>
+    <mergeCell ref="H1:L1"/>
+    <mergeCell ref="M1:Q1"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A7:A9"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3EDF1418-D09A-4A7D-BCCA-DF79DD9F4C99}">
+  <dimension ref="A1:Q16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" sqref="A1:B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="17" width="14" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="B1" s="2"/>
+      <c r="C1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="I1" s="3"/>
+      <c r="J1" s="3"/>
+      <c r="K1" s="3"/>
+      <c r="L1" s="3"/>
+      <c r="M1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N1" s="3"/>
+      <c r="O1" s="3"/>
+      <c r="P1" s="3"/>
+      <c r="Q1" s="3"/>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A2" s="4"/>
+      <c r="B2" s="2"/>
+      <c r="C2" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="H2" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="I2" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="J2" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="K2" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="L2" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="M2" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="N2" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="O2" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="P2" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q2" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="6"/>
+      <c r="B3" s="7"/>
+      <c r="C3" s="7"/>
+      <c r="D3" s="7"/>
+      <c r="E3" s="7"/>
+      <c r="F3" s="7"/>
+      <c r="G3" s="7"/>
+      <c r="H3" s="7"/>
+      <c r="I3" s="7"/>
+      <c r="J3" s="7"/>
+      <c r="K3" s="7"/>
+      <c r="L3" s="7"/>
+      <c r="M3" s="7"/>
+      <c r="N3" s="7"/>
+      <c r="O3" s="7"/>
+      <c r="P3" s="7"/>
+      <c r="Q3" s="7"/>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" s="7">
+        <v>530</v>
+      </c>
+      <c r="D4" s="7">
+        <v>529498</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="G4" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="H4" s="7">
+        <v>540</v>
+      </c>
+      <c r="I4" s="7">
+        <v>591075</v>
+      </c>
+      <c r="J4" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="K4" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="L4" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="M4" s="7">
+        <v>1070</v>
+      </c>
+      <c r="N4" s="7">
+        <v>1120573</v>
+      </c>
+      <c r="O4" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="P4" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="Q4" s="7" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A5" s="1"/>
+      <c r="B5" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C5" s="7">
+        <v>230</v>
+      </c>
+      <c r="D5" s="7">
+        <v>222842</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="H5" s="7">
+        <v>345</v>
+      </c>
+      <c r="I5" s="7">
+        <v>395032</v>
+      </c>
+      <c r="J5" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="L5" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="M5" s="7">
+        <v>575</v>
+      </c>
+      <c r="N5" s="7">
+        <v>617875</v>
+      </c>
+      <c r="O5" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="P5" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="Q5" s="7" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A6" s="1"/>
+      <c r="B6" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C6" s="7">
+        <v>760</v>
+      </c>
+      <c r="D6" s="7">
+        <v>752340</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H6" s="7">
+        <v>885</v>
+      </c>
+      <c r="I6" s="7">
+        <v>986107</v>
+      </c>
+      <c r="J6" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K6" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L6" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M6" s="7">
+        <v>1645</v>
+      </c>
+      <c r="N6" s="7">
+        <v>1738448</v>
+      </c>
+      <c r="O6" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P6" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q6" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A7" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7" s="7">
+        <v>1535</v>
+      </c>
+      <c r="D7" s="7">
+        <v>1624780</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="G7" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="H7" s="7">
+        <v>1442</v>
+      </c>
+      <c r="I7" s="7">
+        <v>1489805</v>
+      </c>
+      <c r="J7" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="K7" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="L7" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="M7" s="7">
+        <v>2977</v>
+      </c>
+      <c r="N7" s="7">
+        <v>3114584</v>
+      </c>
+      <c r="O7" s="7" t="s">
+        <v>181</v>
+      </c>
+      <c r="P7" s="7" t="s">
+        <v>182</v>
+      </c>
+      <c r="Q7" s="7" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A8" s="1"/>
+      <c r="B8" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C8" s="7">
+        <v>413</v>
+      </c>
+      <c r="D8" s="7">
+        <v>446845</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="G8" s="7" t="s">
+        <v>186</v>
+      </c>
+      <c r="H8" s="7">
+        <v>460</v>
+      </c>
+      <c r="I8" s="7">
+        <v>492508</v>
+      </c>
+      <c r="J8" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="K8" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="L8" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="M8" s="7">
+        <v>873</v>
+      </c>
+      <c r="N8" s="7">
+        <v>939354</v>
+      </c>
+      <c r="O8" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="P8" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="Q8" s="7" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A9" s="1"/>
+      <c r="B9" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C9" s="7">
+        <v>1948</v>
+      </c>
+      <c r="D9" s="7">
+        <v>2071625</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H9" s="7">
+        <v>1902</v>
+      </c>
+      <c r="I9" s="7">
+        <v>1982313</v>
+      </c>
+      <c r="J9" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K9" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L9" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M9" s="7">
+        <v>3850</v>
+      </c>
+      <c r="N9" s="7">
+        <v>4053938</v>
+      </c>
+      <c r="O9" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P9" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q9" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A10" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C10" s="7">
+        <v>400</v>
+      </c>
+      <c r="D10" s="7">
+        <v>432989</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>192</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>193</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>194</v>
+      </c>
+      <c r="H10" s="7">
+        <v>416</v>
+      </c>
+      <c r="I10" s="7">
+        <v>431807</v>
+      </c>
+      <c r="J10" s="7" t="s">
+        <v>195</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>196</v>
+      </c>
+      <c r="L10" s="7" t="s">
+        <v>197</v>
+      </c>
+      <c r="M10" s="7">
+        <v>816</v>
+      </c>
+      <c r="N10" s="7">
+        <v>864796</v>
+      </c>
+      <c r="O10" s="7" t="s">
+        <v>198</v>
+      </c>
+      <c r="P10" s="7" t="s">
+        <v>199</v>
+      </c>
+      <c r="Q10" s="7" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A11" s="1"/>
+      <c r="B11" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C11" s="7">
+        <v>101</v>
+      </c>
+      <c r="D11" s="7">
+        <v>113897</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>200</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>201</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>202</v>
+      </c>
+      <c r="H11" s="7">
+        <v>110</v>
+      </c>
+      <c r="I11" s="7">
+        <v>117333</v>
+      </c>
+      <c r="J11" s="7" t="s">
+        <v>203</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>204</v>
+      </c>
+      <c r="L11" s="7" t="s">
+        <v>205</v>
+      </c>
+      <c r="M11" s="7">
+        <v>211</v>
+      </c>
+      <c r="N11" s="7">
+        <v>231230</v>
+      </c>
+      <c r="O11" s="7" t="s">
+        <v>206</v>
+      </c>
+      <c r="P11" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="Q11" s="7" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A12" s="1"/>
+      <c r="B12" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C12" s="7">
+        <v>501</v>
+      </c>
+      <c r="D12" s="7">
+        <v>546886</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H12" s="7">
+        <v>526</v>
+      </c>
+      <c r="I12" s="7">
+        <v>549140</v>
+      </c>
+      <c r="J12" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K12" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L12" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M12" s="7">
+        <v>1027</v>
+      </c>
+      <c r="N12" s="7">
+        <v>1096026</v>
+      </c>
+      <c r="O12" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P12" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q12" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A13" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C13" s="7">
+        <v>2465</v>
+      </c>
+      <c r="D13" s="7">
+        <v>2587268</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>208</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>209</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>210</v>
+      </c>
+      <c r="H13" s="7">
+        <v>2398</v>
+      </c>
+      <c r="I13" s="7">
+        <v>2512687</v>
+      </c>
+      <c r="J13" s="7" t="s">
+        <v>211</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>212</v>
+      </c>
+      <c r="L13" s="7" t="s">
+        <v>213</v>
+      </c>
+      <c r="M13" s="7">
+        <v>4863</v>
+      </c>
+      <c r="N13" s="7">
+        <v>5099954</v>
+      </c>
+      <c r="O13" s="7" t="s">
+        <v>214</v>
+      </c>
+      <c r="P13" s="7" t="s">
+        <v>215</v>
+      </c>
+      <c r="Q13" s="7" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A14" s="1"/>
+      <c r="B14" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C14" s="7">
+        <v>744</v>
+      </c>
+      <c r="D14" s="7">
+        <v>783584</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>217</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>218</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>219</v>
+      </c>
+      <c r="H14" s="7">
+        <v>915</v>
+      </c>
+      <c r="I14" s="7">
+        <v>1004874</v>
+      </c>
+      <c r="J14" s="7" t="s">
+        <v>220</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="L14" s="7" t="s">
+        <v>222</v>
+      </c>
+      <c r="M14" s="7">
+        <v>1659</v>
+      </c>
+      <c r="N14" s="7">
+        <v>1788458</v>
+      </c>
+      <c r="O14" s="7" t="s">
+        <v>223</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>224</v>
+      </c>
+      <c r="Q14" s="7" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A15" s="1"/>
+      <c r="B15" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C15" s="7">
+        <v>3209</v>
+      </c>
+      <c r="D15" s="7">
+        <v>3370852</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H15" s="7">
+        <v>3313</v>
+      </c>
+      <c r="I15" s="7">
+        <v>3517561</v>
+      </c>
+      <c r="J15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M15" s="7">
+        <v>6522</v>
+      </c>
+      <c r="N15" s="7">
+        <v>6888412</v>
+      </c>
+      <c r="O15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q15" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>87</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A13:A15"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:G1"/>
+    <mergeCell ref="H1:L1"/>
+    <mergeCell ref="M1:Q1"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A7:A9"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3E0C86C5-0BEB-4884-BA28-1F6EE2B42DE0}">
+  <dimension ref="A1:Q16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" sqref="A1:B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="17" width="14" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="B1" s="2"/>
+      <c r="C1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="I1" s="3"/>
+      <c r="J1" s="3"/>
+      <c r="K1" s="3"/>
+      <c r="L1" s="3"/>
+      <c r="M1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N1" s="3"/>
+      <c r="O1" s="3"/>
+      <c r="P1" s="3"/>
+      <c r="Q1" s="3"/>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A2" s="4"/>
+      <c r="B2" s="2"/>
+      <c r="C2" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="H2" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="I2" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="J2" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="K2" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="L2" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="M2" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="N2" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="O2" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="P2" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q2" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="6"/>
+      <c r="B3" s="7"/>
+      <c r="C3" s="7"/>
+      <c r="D3" s="7"/>
+      <c r="E3" s="7"/>
+      <c r="F3" s="7"/>
+      <c r="G3" s="7"/>
+      <c r="H3" s="7"/>
+      <c r="I3" s="7"/>
+      <c r="J3" s="7"/>
+      <c r="K3" s="7"/>
+      <c r="L3" s="7"/>
+      <c r="M3" s="7"/>
+      <c r="N3" s="7"/>
+      <c r="O3" s="7"/>
+      <c r="P3" s="7"/>
+      <c r="Q3" s="7"/>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" s="7">
+        <v>440</v>
+      </c>
+      <c r="D4" s="7">
+        <v>350831</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>227</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>228</v>
+      </c>
+      <c r="G4" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="H4" s="7">
+        <v>799</v>
+      </c>
+      <c r="I4" s="7">
+        <v>479858</v>
+      </c>
+      <c r="J4" s="7" t="s">
+        <v>229</v>
+      </c>
+      <c r="K4" s="7" t="s">
+        <v>230</v>
+      </c>
+      <c r="L4" s="7" t="s">
+        <v>231</v>
+      </c>
+      <c r="M4" s="7">
+        <v>1239</v>
+      </c>
+      <c r="N4" s="7">
+        <v>830690</v>
+      </c>
+      <c r="O4" s="7" t="s">
+        <v>232</v>
+      </c>
+      <c r="P4" s="7" t="s">
+        <v>233</v>
+      </c>
+      <c r="Q4" s="7" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A5" s="1"/>
+      <c r="B5" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C5" s="7">
+        <v>233</v>
+      </c>
+      <c r="D5" s="7">
+        <v>174889</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>235</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>236</v>
+      </c>
+      <c r="H5" s="7">
+        <v>568</v>
+      </c>
+      <c r="I5" s="7">
+        <v>318516</v>
+      </c>
+      <c r="J5" s="7" t="s">
+        <v>237</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>238</v>
+      </c>
+      <c r="L5" s="7" t="s">
+        <v>239</v>
+      </c>
+      <c r="M5" s="7">
+        <v>801</v>
+      </c>
+      <c r="N5" s="7">
+        <v>493404</v>
+      </c>
+      <c r="O5" s="7" t="s">
+        <v>240</v>
+      </c>
+      <c r="P5" s="7" t="s">
+        <v>241</v>
+      </c>
+      <c r="Q5" s="7" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A6" s="1"/>
+      <c r="B6" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C6" s="7">
+        <v>673</v>
+      </c>
+      <c r="D6" s="7">
+        <v>525720</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H6" s="7">
+        <v>1367</v>
+      </c>
+      <c r="I6" s="7">
+        <v>798374</v>
+      </c>
+      <c r="J6" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K6" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L6" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M6" s="7">
+        <v>2040</v>
+      </c>
+      <c r="N6" s="7">
+        <v>1324094</v>
+      </c>
+      <c r="O6" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P6" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q6" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A7" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7" s="7">
+        <v>1433</v>
+      </c>
+      <c r="D7" s="7">
+        <v>1618451</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>243</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>182</v>
+      </c>
+      <c r="G7" s="7" t="s">
+        <v>244</v>
+      </c>
+      <c r="H7" s="7">
+        <v>1918</v>
+      </c>
+      <c r="I7" s="7">
+        <v>1497103</v>
+      </c>
+      <c r="J7" s="7" t="s">
+        <v>245</v>
+      </c>
+      <c r="K7" s="7" t="s">
+        <v>246</v>
+      </c>
+      <c r="L7" s="7" t="s">
+        <v>247</v>
+      </c>
+      <c r="M7" s="7">
+        <v>3351</v>
+      </c>
+      <c r="N7" s="7">
+        <v>3115553</v>
+      </c>
+      <c r="O7" s="7" t="s">
+        <v>248</v>
+      </c>
+      <c r="P7" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="Q7" s="7" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A8" s="1"/>
+      <c r="B8" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C8" s="7">
+        <v>515</v>
+      </c>
+      <c r="D8" s="7">
+        <v>467135</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>251</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>252</v>
+      </c>
+      <c r="G8" s="7" t="s">
+        <v>191</v>
+      </c>
+      <c r="H8" s="7">
+        <v>919</v>
+      </c>
+      <c r="I8" s="7">
+        <v>685733</v>
+      </c>
+      <c r="J8" s="7" t="s">
+        <v>253</v>
+      </c>
+      <c r="K8" s="7" t="s">
+        <v>254</v>
+      </c>
+      <c r="L8" s="7" t="s">
+        <v>255</v>
+      </c>
+      <c r="M8" s="7">
+        <v>1434</v>
+      </c>
+      <c r="N8" s="7">
+        <v>1152868</v>
+      </c>
+      <c r="O8" s="7" t="s">
+        <v>256</v>
+      </c>
+      <c r="P8" s="7" t="s">
+        <v>257</v>
+      </c>
+      <c r="Q8" s="7" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A9" s="1"/>
+      <c r="B9" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C9" s="7">
+        <v>1948</v>
+      </c>
+      <c r="D9" s="7">
+        <v>2085586</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H9" s="7">
+        <v>2837</v>
+      </c>
+      <c r="I9" s="7">
+        <v>2182836</v>
+      </c>
+      <c r="J9" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K9" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L9" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M9" s="7">
+        <v>4785</v>
+      </c>
+      <c r="N9" s="7">
+        <v>4268421</v>
+      </c>
+      <c r="O9" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P9" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q9" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A10" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C10" s="7">
+        <v>516</v>
+      </c>
+      <c r="D10" s="7">
+        <v>513515</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>259</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>260</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>261</v>
+      </c>
+      <c r="H10" s="7">
+        <v>700</v>
+      </c>
+      <c r="I10" s="7">
+        <v>513333</v>
+      </c>
+      <c r="J10" s="7" t="s">
+        <v>262</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>263</v>
+      </c>
+      <c r="L10" s="7" t="s">
+        <v>264</v>
+      </c>
+      <c r="M10" s="7">
+        <v>1216</v>
+      </c>
+      <c r="N10" s="7">
+        <v>1026848</v>
+      </c>
+      <c r="O10" s="7" t="s">
+        <v>265</v>
+      </c>
+      <c r="P10" s="7" t="s">
+        <v>266</v>
+      </c>
+      <c r="Q10" s="7" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A11" s="1"/>
+      <c r="B11" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C11" s="7">
+        <v>156</v>
+      </c>
+      <c r="D11" s="7">
+        <v>150771</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>268</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>269</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>270</v>
+      </c>
+      <c r="H11" s="7">
+        <v>294</v>
+      </c>
+      <c r="I11" s="7">
+        <v>193816</v>
+      </c>
+      <c r="J11" s="7" t="s">
+        <v>271</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>272</v>
+      </c>
+      <c r="L11" s="7" t="s">
+        <v>273</v>
+      </c>
+      <c r="M11" s="7">
+        <v>450</v>
+      </c>
+      <c r="N11" s="7">
+        <v>344587</v>
+      </c>
+      <c r="O11" s="7" t="s">
+        <v>274</v>
+      </c>
+      <c r="P11" s="7" t="s">
+        <v>275</v>
+      </c>
+      <c r="Q11" s="7" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A12" s="1"/>
+      <c r="B12" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C12" s="7">
+        <v>672</v>
+      </c>
+      <c r="D12" s="7">
+        <v>664286</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H12" s="7">
+        <v>994</v>
+      </c>
+      <c r="I12" s="7">
+        <v>707149</v>
+      </c>
+      <c r="J12" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K12" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L12" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M12" s="7">
+        <v>1666</v>
+      </c>
+      <c r="N12" s="7">
+        <v>1371435</v>
+      </c>
+      <c r="O12" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P12" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q12" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A13" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C13" s="7">
+        <v>2389</v>
+      </c>
+      <c r="D13" s="7">
+        <v>2482797</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>277</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>278</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>279</v>
+      </c>
+      <c r="H13" s="7">
+        <v>3417</v>
+      </c>
+      <c r="I13" s="7">
+        <v>2490294</v>
+      </c>
+      <c r="J13" s="7" t="s">
+        <v>280</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>281</v>
+      </c>
+      <c r="L13" s="7" t="s">
+        <v>282</v>
+      </c>
+      <c r="M13" s="7">
+        <v>5806</v>
+      </c>
+      <c r="N13" s="7">
+        <v>4973091</v>
+      </c>
+      <c r="O13" s="7" t="s">
+        <v>283</v>
+      </c>
+      <c r="P13" s="7" t="s">
+        <v>284</v>
+      </c>
+      <c r="Q13" s="7" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A14" s="1"/>
+      <c r="B14" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C14" s="7">
+        <v>904</v>
+      </c>
+      <c r="D14" s="7">
+        <v>792795</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>285</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>286</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>287</v>
+      </c>
+      <c r="H14" s="7">
+        <v>1781</v>
+      </c>
+      <c r="I14" s="7">
+        <v>1198064</v>
+      </c>
+      <c r="J14" s="7" t="s">
+        <v>288</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>289</v>
+      </c>
+      <c r="L14" s="7" t="s">
+        <v>290</v>
+      </c>
+      <c r="M14" s="7">
+        <v>2685</v>
+      </c>
+      <c r="N14" s="7">
+        <v>1990859</v>
+      </c>
+      <c r="O14" s="7" t="s">
+        <v>291</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q14" s="7" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A15" s="1"/>
+      <c r="B15" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C15" s="7">
         <v>3293</v>
       </c>
       <c r="D15" s="7">
@@ -1437,7 +4314,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P33_1_R-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P33_1_R-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{223D14DA-787C-4481-8218-C2AB3423EB34}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{1E0E67F0-B5D9-4FDD-92D7-97E3E2331B6A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{B433DD78-B72E-4BCA-A952-C0D08F903A62}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{2030675A-31B2-4419-914E-7E49AA4DCCEC}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="576" uniqueCount="293">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="576" uniqueCount="301">
   <si>
     <t>Población que duerme las horas de sueño recomendadas por la Sociedad Española del Sueño en 2007 (Tasa respuesta: 98,92%)</t>
   </si>
@@ -77,28 +77,28 @@
     <t>73,03%</t>
   </si>
   <si>
-    <t>70,31%</t>
-  </si>
-  <si>
-    <t>75,64%</t>
+    <t>70,2%</t>
+  </si>
+  <si>
+    <t>75,76%</t>
   </si>
   <si>
     <t>65,65%</t>
   </si>
   <si>
-    <t>63,11%</t>
-  </si>
-  <si>
-    <t>68,19%</t>
+    <t>63,19%</t>
+  </si>
+  <si>
+    <t>68,33%</t>
   </si>
   <si>
     <t>68,88%</t>
   </si>
   <si>
-    <t>67,01%</t>
-  </si>
-  <si>
-    <t>70,83%</t>
+    <t>66,81%</t>
+  </si>
+  <si>
+    <t>70,84%</t>
   </si>
   <si>
     <t>No</t>
@@ -107,28 +107,28 @@
     <t>26,97%</t>
   </si>
   <si>
-    <t>24,36%</t>
-  </si>
-  <si>
-    <t>29,69%</t>
+    <t>24,24%</t>
+  </si>
+  <si>
+    <t>29,8%</t>
   </si>
   <si>
     <t>34,35%</t>
   </si>
   <si>
-    <t>31,81%</t>
-  </si>
-  <si>
-    <t>36,89%</t>
+    <t>31,67%</t>
+  </si>
+  <si>
+    <t>36,81%</t>
   </si>
   <si>
     <t>31,12%</t>
   </si>
   <si>
-    <t>29,17%</t>
-  </si>
-  <si>
-    <t>32,99%</t>
+    <t>29,16%</t>
+  </si>
+  <si>
+    <t>33,19%</t>
   </si>
   <si>
     <t>100%</t>
@@ -140,55 +140,55 @@
     <t>85,96%</t>
   </si>
   <si>
-    <t>84,11%</t>
-  </si>
-  <si>
-    <t>87,61%</t>
+    <t>83,99%</t>
+  </si>
+  <si>
+    <t>87,47%</t>
   </si>
   <si>
     <t>82,27%</t>
   </si>
   <si>
-    <t>80,26%</t>
-  </si>
-  <si>
-    <t>84,23%</t>
+    <t>80,3%</t>
+  </si>
+  <si>
+    <t>84,09%</t>
   </si>
   <si>
     <t>84,17%</t>
   </si>
   <si>
-    <t>82,75%</t>
-  </si>
-  <si>
-    <t>85,44%</t>
+    <t>82,76%</t>
+  </si>
+  <si>
+    <t>85,42%</t>
   </si>
   <si>
     <t>14,04%</t>
   </si>
   <si>
-    <t>12,39%</t>
-  </si>
-  <si>
-    <t>15,89%</t>
+    <t>12,53%</t>
+  </si>
+  <si>
+    <t>16,01%</t>
   </si>
   <si>
     <t>17,73%</t>
   </si>
   <si>
-    <t>15,77%</t>
-  </si>
-  <si>
-    <t>19,74%</t>
+    <t>15,91%</t>
+  </si>
+  <si>
+    <t>19,7%</t>
   </si>
   <si>
     <t>15,83%</t>
   </si>
   <si>
-    <t>14,56%</t>
-  </si>
-  <si>
-    <t>17,25%</t>
+    <t>14,58%</t>
+  </si>
+  <si>
+    <t>17,24%</t>
   </si>
   <si>
     <t>Universitarios</t>
@@ -197,10 +197,10 @@
     <t>83,54%</t>
   </si>
   <si>
-    <t>79,84%</t>
-  </si>
-  <si>
-    <t>86,65%</t>
+    <t>80,03%</t>
+  </si>
+  <si>
+    <t>86,71%</t>
   </si>
   <si>
     <t>83,47%</t>
@@ -209,31 +209,31 @@
     <t>79,81%</t>
   </si>
   <si>
-    <t>86,64%</t>
+    <t>86,42%</t>
   </si>
   <si>
     <t>83,51%</t>
   </si>
   <si>
-    <t>80,79%</t>
-  </si>
-  <si>
-    <t>85,78%</t>
+    <t>80,75%</t>
+  </si>
+  <si>
+    <t>85,81%</t>
   </si>
   <si>
     <t>16,46%</t>
   </si>
   <si>
-    <t>13,35%</t>
-  </si>
-  <si>
-    <t>20,16%</t>
+    <t>13,29%</t>
+  </si>
+  <si>
+    <t>19,97%</t>
   </si>
   <si>
     <t>16,53%</t>
   </si>
   <si>
-    <t>13,36%</t>
+    <t>13,58%</t>
   </si>
   <si>
     <t>20,19%</t>
@@ -242,64 +242,64 @@
     <t>16,49%</t>
   </si>
   <si>
-    <t>14,22%</t>
-  </si>
-  <si>
-    <t>19,21%</t>
+    <t>14,19%</t>
+  </si>
+  <si>
+    <t>19,25%</t>
   </si>
   <si>
     <t>81,47%</t>
   </si>
   <si>
-    <t>80,08%</t>
-  </si>
-  <si>
-    <t>83,06%</t>
+    <t>79,88%</t>
+  </si>
+  <si>
+    <t>82,84%</t>
   </si>
   <si>
     <t>75,96%</t>
   </si>
   <si>
-    <t>74,28%</t>
-  </si>
-  <si>
-    <t>77,33%</t>
+    <t>74,35%</t>
+  </si>
+  <si>
+    <t>77,32%</t>
   </si>
   <si>
     <t>78,66%</t>
   </si>
   <si>
-    <t>77,57%</t>
-  </si>
-  <si>
-    <t>79,67%</t>
+    <t>77,7%</t>
+  </si>
+  <si>
+    <t>79,68%</t>
   </si>
   <si>
     <t>18,53%</t>
   </si>
   <si>
-    <t>16,94%</t>
-  </si>
-  <si>
-    <t>19,92%</t>
+    <t>17,16%</t>
+  </si>
+  <si>
+    <t>20,12%</t>
   </si>
   <si>
     <t>24,04%</t>
   </si>
   <si>
-    <t>22,67%</t>
-  </si>
-  <si>
-    <t>25,72%</t>
+    <t>22,68%</t>
+  </si>
+  <si>
+    <t>25,65%</t>
   </si>
   <si>
     <t>21,34%</t>
   </si>
   <si>
-    <t>20,33%</t>
-  </si>
-  <si>
-    <t>22,43%</t>
+    <t>20,32%</t>
+  </si>
+  <si>
+    <t>22,3%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -311,211 +311,217 @@
     <t>65,32%</t>
   </si>
   <si>
-    <t>62,15%</t>
-  </si>
-  <si>
-    <t>68,38%</t>
+    <t>62,06%</t>
+  </si>
+  <si>
+    <t>68,51%</t>
   </si>
   <si>
     <t>56,56%</t>
   </si>
   <si>
-    <t>53,93%</t>
-  </si>
-  <si>
-    <t>59,74%</t>
+    <t>53,56%</t>
+  </si>
+  <si>
+    <t>59,38%</t>
   </si>
   <si>
     <t>60,25%</t>
   </si>
   <si>
-    <t>58,18%</t>
-  </si>
-  <si>
-    <t>62,4%</t>
+    <t>58,16%</t>
+  </si>
+  <si>
+    <t>62,46%</t>
   </si>
   <si>
     <t>34,68%</t>
   </si>
   <si>
-    <t>31,62%</t>
-  </si>
-  <si>
-    <t>37,85%</t>
+    <t>31,49%</t>
+  </si>
+  <si>
+    <t>37,94%</t>
   </si>
   <si>
     <t>43,44%</t>
   </si>
   <si>
-    <t>40,26%</t>
-  </si>
-  <si>
-    <t>46,07%</t>
+    <t>40,62%</t>
+  </si>
+  <si>
+    <t>46,44%</t>
   </si>
   <si>
     <t>39,75%</t>
   </si>
   <si>
-    <t>37,6%</t>
-  </si>
-  <si>
-    <t>41,82%</t>
+    <t>37,54%</t>
+  </si>
+  <si>
+    <t>41,84%</t>
   </si>
   <si>
     <t>77,67%</t>
   </si>
   <si>
-    <t>75,88%</t>
-  </si>
-  <si>
-    <t>79,49%</t>
+    <t>75,6%</t>
+  </si>
+  <si>
+    <t>79,58%</t>
   </si>
   <si>
     <t>72,18%</t>
   </si>
   <si>
-    <t>69,99%</t>
-  </si>
-  <si>
-    <t>74,46%</t>
+    <t>70,02%</t>
+  </si>
+  <si>
+    <t>74,27%</t>
   </si>
   <si>
     <t>75,08%</t>
   </si>
   <si>
-    <t>73,65%</t>
-  </si>
-  <si>
-    <t>76,51%</t>
+    <t>73,51%</t>
+  </si>
+  <si>
+    <t>76,63%</t>
   </si>
   <si>
     <t>22,33%</t>
   </si>
   <si>
-    <t>20,51%</t>
-  </si>
-  <si>
-    <t>24,12%</t>
+    <t>20,42%</t>
+  </si>
+  <si>
+    <t>24,4%</t>
   </si>
   <si>
     <t>27,82%</t>
   </si>
   <si>
-    <t>25,54%</t>
-  </si>
-  <si>
-    <t>30,01%</t>
+    <t>25,73%</t>
+  </si>
+  <si>
+    <t>29,98%</t>
   </si>
   <si>
     <t>24,92%</t>
   </si>
   <si>
-    <t>23,49%</t>
-  </si>
-  <si>
-    <t>26,35%</t>
+    <t>23,37%</t>
+  </si>
+  <si>
+    <t>26,49%</t>
   </si>
   <si>
     <t>77,42%</t>
   </si>
   <si>
-    <t>73,14%</t>
-  </si>
-  <si>
-    <t>81,22%</t>
+    <t>73,1%</t>
+  </si>
+  <si>
+    <t>81,42%</t>
   </si>
   <si>
     <t>81,1%</t>
   </si>
   <si>
-    <t>77,34%</t>
-  </si>
-  <si>
-    <t>84,71%</t>
+    <t>77,05%</t>
+  </si>
+  <si>
+    <t>84,61%</t>
   </si>
   <si>
     <t>79,21%</t>
   </si>
   <si>
-    <t>76,24%</t>
-  </si>
-  <si>
-    <t>81,88%</t>
+    <t>76,14%</t>
+  </si>
+  <si>
+    <t>81,83%</t>
   </si>
   <si>
     <t>22,58%</t>
   </si>
   <si>
-    <t>18,78%</t>
-  </si>
-  <si>
-    <t>26,86%</t>
+    <t>18,58%</t>
+  </si>
+  <si>
+    <t>26,9%</t>
   </si>
   <si>
     <t>18,9%</t>
   </si>
   <si>
-    <t>15,29%</t>
-  </si>
-  <si>
-    <t>22,66%</t>
+    <t>15,39%</t>
+  </si>
+  <si>
+    <t>22,95%</t>
   </si>
   <si>
     <t>20,79%</t>
   </si>
   <si>
-    <t>18,12%</t>
-  </si>
-  <si>
-    <t>23,76%</t>
+    <t>18,17%</t>
+  </si>
+  <si>
+    <t>23,86%</t>
   </si>
   <si>
     <t>74,12%</t>
   </si>
   <si>
-    <t>72,35%</t>
+    <t>72,47%</t>
+  </si>
+  <si>
+    <t>75,53%</t>
   </si>
   <si>
     <t>67,45%</t>
   </si>
   <si>
-    <t>65,71%</t>
-  </si>
-  <si>
-    <t>68,9%</t>
+    <t>65,78%</t>
+  </si>
+  <si>
+    <t>69,09%</t>
   </si>
   <si>
     <t>70,72%</t>
   </si>
   <si>
-    <t>69,62%</t>
-  </si>
-  <si>
-    <t>71,81%</t>
+    <t>69,49%</t>
+  </si>
+  <si>
+    <t>71,73%</t>
   </si>
   <si>
     <t>25,88%</t>
   </si>
   <si>
-    <t>27,65%</t>
+    <t>24,47%</t>
+  </si>
+  <si>
+    <t>27,53%</t>
   </si>
   <si>
     <t>32,55%</t>
   </si>
   <si>
-    <t>31,1%</t>
-  </si>
-  <si>
-    <t>34,29%</t>
+    <t>30,91%</t>
+  </si>
+  <si>
+    <t>34,22%</t>
   </si>
   <si>
     <t>29,28%</t>
   </si>
   <si>
-    <t>28,19%</t>
-  </si>
-  <si>
-    <t>30,38%</t>
+    <t>28,27%</t>
+  </si>
+  <si>
+    <t>30,51%</t>
   </si>
   <si>
     <t>Población que duerme las horas de sueño recomendadas por la Sociedad Española del Sueño en 2016 (Tasa respuesta: 99,71%)</t>
@@ -524,151 +530,169 @@
     <t>70,38%</t>
   </si>
   <si>
-    <t>67,22%</t>
+    <t>66,97%</t>
+  </si>
+  <si>
+    <t>73,63%</t>
   </si>
   <si>
     <t>59,94%</t>
   </si>
   <si>
-    <t>56,6%</t>
-  </si>
-  <si>
-    <t>62,91%</t>
+    <t>56,43%</t>
+  </si>
+  <si>
+    <t>63,16%</t>
   </si>
   <si>
     <t>64,46%</t>
   </si>
   <si>
-    <t>62,22%</t>
-  </si>
-  <si>
-    <t>66,7%</t>
+    <t>62,05%</t>
+  </si>
+  <si>
+    <t>66,78%</t>
   </si>
   <si>
     <t>29,62%</t>
   </si>
   <si>
-    <t>32,78%</t>
+    <t>26,37%</t>
+  </si>
+  <si>
+    <t>33,03%</t>
   </si>
   <si>
     <t>40,06%</t>
   </si>
   <si>
-    <t>37,09%</t>
-  </si>
-  <si>
-    <t>43,4%</t>
+    <t>36,84%</t>
+  </si>
+  <si>
+    <t>43,57%</t>
   </si>
   <si>
     <t>35,54%</t>
   </si>
   <si>
-    <t>33,3%</t>
-  </si>
-  <si>
-    <t>37,78%</t>
+    <t>33,22%</t>
+  </si>
+  <si>
+    <t>37,95%</t>
   </si>
   <si>
     <t>78,43%</t>
   </si>
   <si>
-    <t>76,31%</t>
-  </si>
-  <si>
-    <t>80,13%</t>
+    <t>76,53%</t>
+  </si>
+  <si>
+    <t>80,33%</t>
   </si>
   <si>
     <t>75,15%</t>
   </si>
   <si>
-    <t>77,05%</t>
+    <t>72,82%</t>
+  </si>
+  <si>
+    <t>77,01%</t>
   </si>
   <si>
     <t>76,83%</t>
   </si>
   <si>
-    <t>75,44%</t>
-  </si>
-  <si>
-    <t>78,16%</t>
+    <t>75,48%</t>
+  </si>
+  <si>
+    <t>78,17%</t>
   </si>
   <si>
     <t>21,57%</t>
   </si>
   <si>
-    <t>19,87%</t>
-  </si>
-  <si>
-    <t>23,69%</t>
+    <t>19,67%</t>
+  </si>
+  <si>
+    <t>23,47%</t>
   </si>
   <si>
     <t>24,85%</t>
   </si>
   <si>
-    <t>22,95%</t>
+    <t>22,99%</t>
+  </si>
+  <si>
+    <t>27,18%</t>
   </si>
   <si>
     <t>23,17%</t>
   </si>
   <si>
-    <t>21,84%</t>
-  </si>
-  <si>
-    <t>24,56%</t>
+    <t>21,83%</t>
+  </si>
+  <si>
+    <t>24,52%</t>
   </si>
   <si>
     <t>79,17%</t>
   </si>
   <si>
-    <t>75,47%</t>
-  </si>
-  <si>
-    <t>83,04%</t>
+    <t>75,3%</t>
+  </si>
+  <si>
+    <t>82,79%</t>
   </si>
   <si>
     <t>78,63%</t>
   </si>
   <si>
-    <t>75,0%</t>
-  </si>
-  <si>
-    <t>81,99%</t>
+    <t>74,82%</t>
+  </si>
+  <si>
+    <t>82,02%</t>
   </si>
   <si>
     <t>78,9%</t>
   </si>
   <si>
-    <t>76,22%</t>
+    <t>76,28%</t>
+  </si>
+  <si>
+    <t>81,43%</t>
   </si>
   <si>
     <t>20,83%</t>
   </si>
   <si>
-    <t>16,96%</t>
-  </si>
-  <si>
-    <t>24,53%</t>
+    <t>17,21%</t>
+  </si>
+  <si>
+    <t>24,7%</t>
   </si>
   <si>
     <t>21,37%</t>
   </si>
   <si>
-    <t>18,01%</t>
-  </si>
-  <si>
-    <t>25,0%</t>
+    <t>17,98%</t>
+  </si>
+  <si>
+    <t>25,18%</t>
   </si>
   <si>
     <t>21,1%</t>
   </si>
   <si>
-    <t>23,78%</t>
+    <t>18,57%</t>
+  </si>
+  <si>
+    <t>23,72%</t>
   </si>
   <si>
     <t>76,75%</t>
   </si>
   <si>
-    <t>75,17%</t>
+    <t>75,42%</t>
   </si>
   <si>
     <t>78,23%</t>
@@ -677,19 +701,16 @@
     <t>71,43%</t>
   </si>
   <si>
-    <t>69,76%</t>
-  </si>
-  <si>
-    <t>72,98%</t>
+    <t>69,97%</t>
+  </si>
+  <si>
+    <t>73,02%</t>
   </si>
   <si>
     <t>74,04%</t>
   </si>
   <si>
-    <t>72,85%</t>
-  </si>
-  <si>
-    <t>75,1%</t>
+    <t>73,08%</t>
   </si>
   <si>
     <t>23,25%</t>
@@ -698,25 +719,22 @@
     <t>21,77%</t>
   </si>
   <si>
-    <t>24,83%</t>
+    <t>24,58%</t>
   </si>
   <si>
     <t>28,57%</t>
   </si>
   <si>
-    <t>27,02%</t>
-  </si>
-  <si>
-    <t>30,24%</t>
+    <t>26,98%</t>
+  </si>
+  <si>
+    <t>30,03%</t>
   </si>
   <si>
     <t>25,96%</t>
   </si>
   <si>
-    <t>24,9%</t>
-  </si>
-  <si>
-    <t>27,15%</t>
+    <t>26,92%</t>
   </si>
   <si>
     <t>Población que duerme las horas de sueño recomendadas por la Sociedad Española del Sueño en 2023 (Tasa respuesta: 97,37%)</t>
@@ -725,199 +743,205 @@
     <t>66,73%</t>
   </si>
   <si>
-    <t>62,96%</t>
+    <t>63,05%</t>
+  </si>
+  <si>
+    <t>70,27%</t>
   </si>
   <si>
     <t>60,1%</t>
   </si>
   <si>
-    <t>57,36%</t>
-  </si>
-  <si>
-    <t>62,77%</t>
+    <t>57,37%</t>
+  </si>
+  <si>
+    <t>62,99%</t>
   </si>
   <si>
     <t>62,74%</t>
   </si>
   <si>
-    <t>60,28%</t>
-  </si>
-  <si>
-    <t>64,99%</t>
+    <t>65,07%</t>
   </si>
   <si>
     <t>33,27%</t>
   </si>
   <si>
-    <t>37,04%</t>
+    <t>29,73%</t>
+  </si>
+  <si>
+    <t>36,95%</t>
   </si>
   <si>
     <t>39,9%</t>
   </si>
   <si>
-    <t>37,23%</t>
-  </si>
-  <si>
-    <t>42,64%</t>
+    <t>37,01%</t>
+  </si>
+  <si>
+    <t>42,63%</t>
   </si>
   <si>
     <t>37,26%</t>
   </si>
   <si>
-    <t>35,01%</t>
-  </si>
-  <si>
-    <t>39,72%</t>
+    <t>34,93%</t>
   </si>
   <si>
     <t>77,6%</t>
   </si>
   <si>
-    <t>79,87%</t>
+    <t>75,7%</t>
+  </si>
+  <si>
+    <t>79,8%</t>
   </si>
   <si>
     <t>68,59%</t>
   </si>
   <si>
-    <t>55,07%</t>
-  </si>
-  <si>
-    <t>72,78%</t>
+    <t>54,94%</t>
   </si>
   <si>
     <t>72,99%</t>
   </si>
   <si>
-    <t>66,55%</t>
-  </si>
-  <si>
-    <t>75,43%</t>
+    <t>65,82%</t>
+  </si>
+  <si>
+    <t>75,45%</t>
   </si>
   <si>
     <t>22,4%</t>
   </si>
   <si>
-    <t>20,13%</t>
+    <t>20,2%</t>
+  </si>
+  <si>
+    <t>24,3%</t>
   </si>
   <si>
     <t>31,41%</t>
   </si>
   <si>
-    <t>27,22%</t>
-  </si>
-  <si>
-    <t>44,93%</t>
+    <t>45,06%</t>
   </si>
   <si>
     <t>27,01%</t>
   </si>
   <si>
-    <t>24,57%</t>
-  </si>
-  <si>
-    <t>33,45%</t>
+    <t>24,55%</t>
+  </si>
+  <si>
+    <t>34,18%</t>
   </si>
   <si>
     <t>77,3%</t>
   </si>
   <si>
-    <t>73,45%</t>
-  </si>
-  <si>
-    <t>80,76%</t>
+    <t>73,67%</t>
+  </si>
+  <si>
+    <t>80,84%</t>
   </si>
   <si>
     <t>72,59%</t>
   </si>
   <si>
-    <t>69,03%</t>
-  </si>
-  <si>
-    <t>75,31%</t>
+    <t>69,52%</t>
+  </si>
+  <si>
+    <t>75,68%</t>
   </si>
   <si>
     <t>74,87%</t>
   </si>
   <si>
-    <t>72,24%</t>
-  </si>
-  <si>
-    <t>77,14%</t>
+    <t>72,25%</t>
+  </si>
+  <si>
+    <t>77,2%</t>
   </si>
   <si>
     <t>22,7%</t>
   </si>
   <si>
-    <t>19,24%</t>
-  </si>
-  <si>
-    <t>26,55%</t>
+    <t>19,16%</t>
+  </si>
+  <si>
+    <t>26,33%</t>
   </si>
   <si>
     <t>27,41%</t>
   </si>
   <si>
-    <t>24,69%</t>
-  </si>
-  <si>
-    <t>30,97%</t>
+    <t>24,32%</t>
+  </si>
+  <si>
+    <t>30,48%</t>
   </si>
   <si>
     <t>25,13%</t>
   </si>
   <si>
-    <t>22,86%</t>
-  </si>
-  <si>
-    <t>27,76%</t>
+    <t>22,8%</t>
+  </si>
+  <si>
+    <t>27,75%</t>
   </si>
   <si>
     <t>75,8%</t>
   </si>
   <si>
-    <t>74,02%</t>
-  </si>
-  <si>
-    <t>77,5%</t>
+    <t>74,23%</t>
+  </si>
+  <si>
+    <t>77,63%</t>
   </si>
   <si>
     <t>67,52%</t>
   </si>
   <si>
-    <t>59,15%</t>
-  </si>
-  <si>
-    <t>70,12%</t>
+    <t>60,09%</t>
+  </si>
+  <si>
+    <t>69,95%</t>
   </si>
   <si>
     <t>71,41%</t>
   </si>
   <si>
-    <t>67,2%</t>
+    <t>66,63%</t>
+  </si>
+  <si>
+    <t>73,04%</t>
   </si>
   <si>
     <t>24,2%</t>
   </si>
   <si>
-    <t>22,5%</t>
-  </si>
-  <si>
-    <t>25,98%</t>
+    <t>22,37%</t>
+  </si>
+  <si>
+    <t>25,77%</t>
   </si>
   <si>
     <t>32,48%</t>
   </si>
   <si>
-    <t>29,88%</t>
-  </si>
-  <si>
-    <t>40,85%</t>
+    <t>30,05%</t>
+  </si>
+  <si>
+    <t>39,91%</t>
   </si>
   <si>
     <t>28,59%</t>
   </si>
   <si>
-    <t>32,8%</t>
+    <t>26,96%</t>
+  </si>
+  <si>
+    <t>33,37%</t>
   </si>
 </sst>
 </file>
@@ -1329,7 +1353,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8ED49764-808D-40F2-A1E7-EA05BFC5695C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA332AA2-01FC-41EF-BD30-10E762A2BE0F}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2080,7 +2104,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BF3C06E2-7933-46BF-B1C8-47E5188EA50C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0172B57D-2699-480E-908D-ED8BFF1413F9}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2675,7 +2699,7 @@
         <v>144</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>13</v>
+        <v>145</v>
       </c>
       <c r="H13" s="7">
         <v>2215</v>
@@ -2684,13 +2708,13 @@
         <v>2391118</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="M13" s="7">
         <v>4583</v>
@@ -2699,13 +2723,13 @@
         <v>4916174</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2720,13 +2744,13 @@
         <v>881507</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>22</v>
+        <v>153</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="H14" s="7">
         <v>1070</v>
@@ -2735,13 +2759,13 @@
         <v>1153761</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="M14" s="7">
         <v>1892</v>
@@ -2750,13 +2774,13 @@
         <v>2035268</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2831,7 +2855,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3EDF1418-D09A-4A7D-BCCA-DF79DD9F4C99}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{39C9F176-3E3F-42B7-AF3A-49B6A007C71B}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2848,7 +2872,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2955,13 +2979,13 @@
         <v>529498</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>114</v>
+        <v>164</v>
       </c>
       <c r="H4" s="7">
         <v>540</v>
@@ -2970,13 +2994,13 @@
         <v>591075</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="M4" s="7">
         <v>1070</v>
@@ -2985,13 +3009,13 @@
         <v>1120573</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3006,13 +3030,13 @@
         <v>222842</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>124</v>
+        <v>172</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="H5" s="7">
         <v>345</v>
@@ -3021,13 +3045,13 @@
         <v>395032</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="M5" s="7">
         <v>575</v>
@@ -3036,13 +3060,13 @@
         <v>617875</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3110,13 +3134,13 @@
         <v>1624780</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="H7" s="7">
         <v>1442</v>
@@ -3125,13 +3149,13 @@
         <v>1489805</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>126</v>
+        <v>184</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>180</v>
+        <v>185</v>
       </c>
       <c r="M7" s="7">
         <v>2977</v>
@@ -3140,13 +3164,13 @@
         <v>3114584</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>181</v>
+        <v>186</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>182</v>
+        <v>187</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>183</v>
+        <v>188</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3161,13 +3185,13 @@
         <v>446845</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>184</v>
+        <v>189</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>185</v>
+        <v>190</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>186</v>
+        <v>191</v>
       </c>
       <c r="H8" s="7">
         <v>460</v>
@@ -3176,13 +3200,13 @@
         <v>492508</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>187</v>
+        <v>192</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>188</v>
+        <v>193</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>136</v>
+        <v>194</v>
       </c>
       <c r="M8" s="7">
         <v>873</v>
@@ -3191,13 +3215,13 @@
         <v>939354</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>189</v>
+        <v>195</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>190</v>
+        <v>196</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>191</v>
+        <v>197</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3265,13 +3289,13 @@
         <v>432989</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>192</v>
+        <v>198</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>193</v>
+        <v>199</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>194</v>
+        <v>200</v>
       </c>
       <c r="H10" s="7">
         <v>416</v>
@@ -3280,13 +3304,13 @@
         <v>431807</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>195</v>
+        <v>201</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>196</v>
+        <v>202</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>197</v>
+        <v>203</v>
       </c>
       <c r="M10" s="7">
         <v>816</v>
@@ -3295,13 +3319,13 @@
         <v>864796</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>198</v>
+        <v>204</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>199</v>
+        <v>205</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>127</v>
+        <v>206</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3316,13 +3340,13 @@
         <v>113897</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>200</v>
+        <v>207</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>201</v>
+        <v>208</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>202</v>
+        <v>209</v>
       </c>
       <c r="H11" s="7">
         <v>110</v>
@@ -3331,13 +3355,13 @@
         <v>117333</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>203</v>
+        <v>210</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>204</v>
+        <v>211</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>205</v>
+        <v>212</v>
       </c>
       <c r="M11" s="7">
         <v>211</v>
@@ -3346,13 +3370,13 @@
         <v>231230</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>206</v>
+        <v>213</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>135</v>
+        <v>214</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>207</v>
+        <v>215</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3420,13 +3444,13 @@
         <v>2587268</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>208</v>
+        <v>216</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>209</v>
+        <v>217</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>210</v>
+        <v>218</v>
       </c>
       <c r="H13" s="7">
         <v>2398</v>
@@ -3435,13 +3459,13 @@
         <v>2512687</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>211</v>
+        <v>219</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>212</v>
+        <v>220</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>213</v>
+        <v>221</v>
       </c>
       <c r="M13" s="7">
         <v>4863</v>
@@ -3450,13 +3474,13 @@
         <v>5099954</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>214</v>
+        <v>222</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>215</v>
+        <v>223</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>216</v>
+        <v>113</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3471,13 +3495,13 @@
         <v>783584</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>217</v>
+        <v>224</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>218</v>
+        <v>225</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>219</v>
+        <v>226</v>
       </c>
       <c r="H14" s="7">
         <v>915</v>
@@ -3486,13 +3510,13 @@
         <v>1004874</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>220</v>
+        <v>227</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>221</v>
+        <v>228</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>222</v>
+        <v>229</v>
       </c>
       <c r="M14" s="7">
         <v>1659</v>
@@ -3501,13 +3525,13 @@
         <v>1788458</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>223</v>
+        <v>230</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>224</v>
+        <v>122</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>225</v>
+        <v>231</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3582,7 +3606,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3E0C86C5-0BEB-4884-BA28-1F6EE2B42DE0}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F73EC3CD-B00C-4CC6-90B4-315034230670}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3599,7 +3623,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>226</v>
+        <v>232</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3706,13 +3730,13 @@
         <v>350831</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>227</v>
+        <v>233</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>228</v>
+        <v>234</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>12</v>
+        <v>235</v>
       </c>
       <c r="H4" s="7">
         <v>799</v>
@@ -3721,13 +3745,13 @@
         <v>479858</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>229</v>
+        <v>236</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>230</v>
+        <v>237</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>231</v>
+        <v>238</v>
       </c>
       <c r="M4" s="7">
         <v>1239</v>
@@ -3736,13 +3760,13 @@
         <v>830690</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>232</v>
+        <v>239</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>233</v>
+        <v>95</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>234</v>
+        <v>240</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3757,13 +3781,13 @@
         <v>174889</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>235</v>
+        <v>241</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>23</v>
+        <v>242</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>236</v>
+        <v>243</v>
       </c>
       <c r="H5" s="7">
         <v>568</v>
@@ -3772,13 +3796,13 @@
         <v>318516</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>237</v>
+        <v>244</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>238</v>
+        <v>245</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>239</v>
+        <v>246</v>
       </c>
       <c r="M5" s="7">
         <v>801</v>
@@ -3787,13 +3811,13 @@
         <v>493404</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>240</v>
+        <v>247</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>241</v>
+        <v>248</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>242</v>
+        <v>104</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3861,13 +3885,13 @@
         <v>1618451</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>243</v>
+        <v>249</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>182</v>
+        <v>250</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>244</v>
+        <v>251</v>
       </c>
       <c r="H7" s="7">
         <v>1918</v>
@@ -3876,13 +3900,13 @@
         <v>1497103</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>245</v>
+        <v>252</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>246</v>
+        <v>253</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>247</v>
+        <v>11</v>
       </c>
       <c r="M7" s="7">
         <v>3351</v>
@@ -3891,13 +3915,13 @@
         <v>3115553</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>248</v>
+        <v>254</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>249</v>
+        <v>255</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>250</v>
+        <v>256</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3912,13 +3936,13 @@
         <v>467135</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>251</v>
+        <v>257</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>252</v>
+        <v>258</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>191</v>
+        <v>259</v>
       </c>
       <c r="H8" s="7">
         <v>919</v>
@@ -3927,13 +3951,13 @@
         <v>685733</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>253</v>
+        <v>260</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>254</v>
+        <v>21</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>255</v>
+        <v>261</v>
       </c>
       <c r="M8" s="7">
         <v>1434</v>
@@ -3942,13 +3966,13 @@
         <v>1152868</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>256</v>
+        <v>262</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>257</v>
+        <v>263</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>258</v>
+        <v>264</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4016,13 +4040,13 @@
         <v>513515</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>259</v>
+        <v>265</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>260</v>
+        <v>266</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>261</v>
+        <v>267</v>
       </c>
       <c r="H10" s="7">
         <v>700</v>
@@ -4031,13 +4055,13 @@
         <v>513333</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>262</v>
+        <v>268</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>263</v>
+        <v>269</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>264</v>
+        <v>270</v>
       </c>
       <c r="M10" s="7">
         <v>1216</v>
@@ -4046,13 +4070,13 @@
         <v>1026848</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>265</v>
+        <v>271</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>266</v>
+        <v>272</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>267</v>
+        <v>273</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4067,13 +4091,13 @@
         <v>150771</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>268</v>
+        <v>274</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>269</v>
+        <v>275</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>270</v>
+        <v>276</v>
       </c>
       <c r="H11" s="7">
         <v>294</v>
@@ -4082,13 +4106,13 @@
         <v>193816</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>271</v>
+        <v>277</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>272</v>
+        <v>278</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>273</v>
+        <v>279</v>
       </c>
       <c r="M11" s="7">
         <v>450</v>
@@ -4097,13 +4121,13 @@
         <v>344587</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>274</v>
+        <v>280</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>275</v>
+        <v>281</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>276</v>
+        <v>282</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4171,28 +4195,28 @@
         <v>2482797</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>277</v>
+        <v>283</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>278</v>
+        <v>284</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>279</v>
+        <v>285</v>
       </c>
       <c r="H13" s="7">
         <v>3417</v>
       </c>
       <c r="I13" s="7">
-        <v>2490294</v>
+        <v>2490295</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>280</v>
+        <v>286</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>281</v>
+        <v>287</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>282</v>
+        <v>288</v>
       </c>
       <c r="M13" s="7">
         <v>5806</v>
@@ -4201,13 +4225,13 @@
         <v>4973091</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>283</v>
+        <v>289</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>284</v>
+        <v>290</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>11</v>
+        <v>291</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4222,13 +4246,13 @@
         <v>792795</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>285</v>
+        <v>292</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>286</v>
+        <v>293</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>287</v>
+        <v>294</v>
       </c>
       <c r="H14" s="7">
         <v>1781</v>
@@ -4237,13 +4261,13 @@
         <v>1198064</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>288</v>
+        <v>295</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>289</v>
+        <v>296</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>290</v>
+        <v>297</v>
       </c>
       <c r="M14" s="7">
         <v>2685</v>
@@ -4252,13 +4276,13 @@
         <v>1990859</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>291</v>
+        <v>298</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>21</v>
+        <v>299</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>292</v>
+        <v>300</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4285,7 +4309,7 @@
         <v>5198</v>
       </c>
       <c r="I15" s="7">
-        <v>3688358</v>
+        <v>3688359</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>

--- a/data/trans_orig/P33_1_R-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P33_1_R-Estudios-trans_orig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1E0E67F0-B5D9-4FDD-92D7-97E3E2331B6A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{95C423C0-F6FD-4FE2-B65B-8896E8B8D1A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{2030675A-31B2-4419-914E-7E49AA4DCCEC}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{8BA9B52C-0286-488C-B80A-2CD3A0F79AED}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="576" uniqueCount="301">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="576" uniqueCount="305">
   <si>
     <t>Población que duerme las horas de sueño recomendadas por la Sociedad Española del Sueño en 2007 (Tasa respuesta: 98,92%)</t>
   </si>
@@ -740,208 +740,220 @@
     <t>Población que duerme las horas de sueño recomendadas por la Sociedad Española del Sueño en 2023 (Tasa respuesta: 97,37%)</t>
   </si>
   <si>
-    <t>66,73%</t>
-  </si>
-  <si>
-    <t>63,05%</t>
-  </si>
-  <si>
-    <t>70,27%</t>
-  </si>
-  <si>
-    <t>60,1%</t>
-  </si>
-  <si>
-    <t>57,37%</t>
-  </si>
-  <si>
-    <t>62,99%</t>
-  </si>
-  <si>
-    <t>62,74%</t>
-  </si>
-  <si>
-    <t>65,07%</t>
-  </si>
-  <si>
-    <t>33,27%</t>
-  </si>
-  <si>
-    <t>29,73%</t>
-  </si>
-  <si>
-    <t>36,95%</t>
-  </si>
-  <si>
-    <t>39,9%</t>
-  </si>
-  <si>
-    <t>37,01%</t>
-  </si>
-  <si>
-    <t>42,63%</t>
-  </si>
-  <si>
-    <t>37,26%</t>
-  </si>
-  <si>
-    <t>34,93%</t>
-  </si>
-  <si>
-    <t>77,6%</t>
-  </si>
-  <si>
-    <t>75,7%</t>
-  </si>
-  <si>
-    <t>79,8%</t>
-  </si>
-  <si>
-    <t>68,59%</t>
-  </si>
-  <si>
-    <t>54,94%</t>
-  </si>
-  <si>
-    <t>72,99%</t>
-  </si>
-  <si>
-    <t>65,82%</t>
+    <t>66,5%</t>
+  </si>
+  <si>
+    <t>62,77%</t>
+  </si>
+  <si>
+    <t>70,09%</t>
+  </si>
+  <si>
+    <t>59,89%</t>
+  </si>
+  <si>
+    <t>57,15%</t>
+  </si>
+  <si>
+    <t>62,63%</t>
+  </si>
+  <si>
+    <t>62,6%</t>
+  </si>
+  <si>
+    <t>60,16%</t>
+  </si>
+  <si>
+    <t>64,95%</t>
+  </si>
+  <si>
+    <t>33,5%</t>
+  </si>
+  <si>
+    <t>29,91%</t>
+  </si>
+  <si>
+    <t>37,23%</t>
+  </si>
+  <si>
+    <t>40,11%</t>
+  </si>
+  <si>
+    <t>37,37%</t>
+  </si>
+  <si>
+    <t>42,85%</t>
+  </si>
+  <si>
+    <t>37,4%</t>
+  </si>
+  <si>
+    <t>35,05%</t>
+  </si>
+  <si>
+    <t>39,84%</t>
+  </si>
+  <si>
+    <t>79,35%</t>
+  </si>
+  <si>
+    <t>76,06%</t>
+  </si>
+  <si>
+    <t>85,5%</t>
+  </si>
+  <si>
+    <t>65,98%</t>
+  </si>
+  <si>
+    <t>44,87%</t>
+  </si>
+  <si>
+    <t>73,96%</t>
+  </si>
+  <si>
+    <t>72,72%</t>
+  </si>
+  <si>
+    <t>61,88%</t>
+  </si>
+  <si>
+    <t>77,69%</t>
+  </si>
+  <si>
+    <t>20,65%</t>
+  </si>
+  <si>
+    <t>14,5%</t>
+  </si>
+  <si>
+    <t>23,94%</t>
+  </si>
+  <si>
+    <t>34,02%</t>
+  </si>
+  <si>
+    <t>26,04%</t>
+  </si>
+  <si>
+    <t>55,13%</t>
+  </si>
+  <si>
+    <t>27,28%</t>
+  </si>
+  <si>
+    <t>22,31%</t>
+  </si>
+  <si>
+    <t>38,12%</t>
+  </si>
+  <si>
+    <t>76,51%</t>
+  </si>
+  <si>
+    <t>71,86%</t>
+  </si>
+  <si>
+    <t>80,19%</t>
+  </si>
+  <si>
+    <t>72,42%</t>
+  </si>
+  <si>
+    <t>69,26%</t>
   </si>
   <si>
     <t>75,45%</t>
   </si>
   <si>
-    <t>22,4%</t>
-  </si>
-  <si>
-    <t>20,2%</t>
-  </si>
-  <si>
-    <t>24,3%</t>
-  </si>
-  <si>
-    <t>31,41%</t>
-  </si>
-  <si>
-    <t>45,06%</t>
-  </si>
-  <si>
-    <t>27,01%</t>
+    <t>74,44%</t>
+  </si>
+  <si>
+    <t>71,6%</t>
+  </si>
+  <si>
+    <t>76,87%</t>
+  </si>
+  <si>
+    <t>23,49%</t>
+  </si>
+  <si>
+    <t>19,81%</t>
+  </si>
+  <si>
+    <t>28,14%</t>
+  </si>
+  <si>
+    <t>27,58%</t>
   </si>
   <si>
     <t>24,55%</t>
   </si>
   <si>
-    <t>34,18%</t>
-  </si>
-  <si>
-    <t>77,3%</t>
-  </si>
-  <si>
-    <t>73,67%</t>
-  </si>
-  <si>
-    <t>80,84%</t>
-  </si>
-  <si>
-    <t>72,59%</t>
-  </si>
-  <si>
-    <t>69,52%</t>
-  </si>
-  <si>
-    <t>75,68%</t>
-  </si>
-  <si>
-    <t>74,87%</t>
-  </si>
-  <si>
-    <t>72,25%</t>
-  </si>
-  <si>
-    <t>77,2%</t>
-  </si>
-  <si>
-    <t>22,7%</t>
-  </si>
-  <si>
-    <t>19,16%</t>
-  </si>
-  <si>
-    <t>26,33%</t>
-  </si>
-  <si>
-    <t>27,41%</t>
-  </si>
-  <si>
-    <t>24,32%</t>
-  </si>
-  <si>
-    <t>30,48%</t>
-  </si>
-  <si>
-    <t>25,13%</t>
-  </si>
-  <si>
-    <t>22,8%</t>
-  </si>
-  <si>
-    <t>27,75%</t>
-  </si>
-  <si>
-    <t>75,8%</t>
-  </si>
-  <si>
-    <t>74,23%</t>
-  </si>
-  <si>
-    <t>77,63%</t>
-  </si>
-  <si>
-    <t>67,52%</t>
-  </si>
-  <si>
-    <t>60,09%</t>
-  </si>
-  <si>
-    <t>69,95%</t>
-  </si>
-  <si>
-    <t>71,41%</t>
-  </si>
-  <si>
-    <t>66,63%</t>
-  </si>
-  <si>
-    <t>73,04%</t>
-  </si>
-  <si>
-    <t>24,2%</t>
-  </si>
-  <si>
-    <t>22,37%</t>
-  </si>
-  <si>
-    <t>25,77%</t>
-  </si>
-  <si>
-    <t>32,48%</t>
-  </si>
-  <si>
-    <t>30,05%</t>
-  </si>
-  <si>
-    <t>39,91%</t>
-  </si>
-  <si>
-    <t>28,59%</t>
-  </si>
-  <si>
-    <t>26,96%</t>
-  </si>
-  <si>
-    <t>33,37%</t>
+    <t>30,74%</t>
+  </si>
+  <si>
+    <t>25,56%</t>
+  </si>
+  <si>
+    <t>23,13%</t>
+  </si>
+  <si>
+    <t>28,4%</t>
+  </si>
+  <si>
+    <t>76,89%</t>
+  </si>
+  <si>
+    <t>74,63%</t>
+  </si>
+  <si>
+    <t>82,14%</t>
+  </si>
+  <si>
+    <t>65,93%</t>
+  </si>
+  <si>
+    <t>52,67%</t>
+  </si>
+  <si>
+    <t>70,43%</t>
+  </si>
+  <si>
+    <t>71,25%</t>
+  </si>
+  <si>
+    <t>63,5%</t>
+  </si>
+  <si>
+    <t>74,42%</t>
+  </si>
+  <si>
+    <t>23,11%</t>
+  </si>
+  <si>
+    <t>17,86%</t>
+  </si>
+  <si>
+    <t>25,37%</t>
+  </si>
+  <si>
+    <t>34,07%</t>
+  </si>
+  <si>
+    <t>29,57%</t>
+  </si>
+  <si>
+    <t>47,33%</t>
+  </si>
+  <si>
+    <t>28,75%</t>
+  </si>
+  <si>
+    <t>25,58%</t>
+  </si>
+  <si>
+    <t>36,5%</t>
   </si>
 </sst>
 </file>
@@ -1353,7 +1365,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA332AA2-01FC-41EF-BD30-10E762A2BE0F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C0486791-8959-4C00-99B0-5ED26B6C97B8}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1644,7 +1656,7 @@
         <v>1270</v>
       </c>
       <c r="I7" s="7">
-        <v>1294358</v>
+        <v>1294357</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>35</v>
@@ -1659,7 +1671,7 @@
         <v>2666</v>
       </c>
       <c r="N7" s="7">
-        <v>2725931</v>
+        <v>2725932</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>38</v>
@@ -1746,7 +1758,7 @@
         <v>1540</v>
       </c>
       <c r="I9" s="7">
-        <v>1573274</v>
+        <v>1573273</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -1761,7 +1773,7 @@
         <v>3159</v>
       </c>
       <c r="N9" s="7">
-        <v>3238616</v>
+        <v>3238617</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -2104,7 +2116,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0172B57D-2699-480E-908D-ED8BFF1413F9}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E6A39516-A27E-46E2-B98B-BCB3FF7E9F6E}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2565,7 +2577,7 @@
         <v>674</v>
       </c>
       <c r="N10" s="7">
-        <v>744464</v>
+        <v>744465</v>
       </c>
       <c r="O10" s="7" t="s">
         <v>131</v>
@@ -2667,7 +2679,7 @@
         <v>850</v>
       </c>
       <c r="N12" s="7">
-        <v>939812</v>
+        <v>939813</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -2690,7 +2702,7 @@
         <v>2368</v>
       </c>
       <c r="D13" s="7">
-        <v>2525055</v>
+        <v>2525056</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>143</v>
@@ -2792,7 +2804,7 @@
         <v>3190</v>
       </c>
       <c r="D15" s="7">
-        <v>3406562</v>
+        <v>3406563</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -2855,7 +2867,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{39C9F176-3E3F-42B7-AF3A-49B6A007C71B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5DB32BBA-E53B-47F6-9D4D-120C686DD47E}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3057,7 +3069,7 @@
         <v>575</v>
       </c>
       <c r="N5" s="7">
-        <v>617875</v>
+        <v>617874</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>177</v>
@@ -3108,7 +3120,7 @@
         <v>1645</v>
       </c>
       <c r="N6" s="7">
-        <v>1738448</v>
+        <v>1738447</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>30</v>
@@ -3316,7 +3328,7 @@
         <v>816</v>
       </c>
       <c r="N10" s="7">
-        <v>864796</v>
+        <v>864797</v>
       </c>
       <c r="O10" s="7" t="s">
         <v>204</v>
@@ -3418,7 +3430,7 @@
         <v>1027</v>
       </c>
       <c r="N12" s="7">
-        <v>1096026</v>
+        <v>1096027</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -3471,7 +3483,7 @@
         <v>4863</v>
       </c>
       <c r="N13" s="7">
-        <v>5099954</v>
+        <v>5099955</v>
       </c>
       <c r="O13" s="7" t="s">
         <v>222</v>
@@ -3573,7 +3585,7 @@
         <v>6522</v>
       </c>
       <c r="N15" s="7">
-        <v>6888412</v>
+        <v>6888413</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -3606,7 +3618,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F73EC3CD-B00C-4CC6-90B4-315034230670}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EB04E0A9-5A18-46A3-9099-EBEC6C0F1562}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3727,7 +3739,7 @@
         <v>440</v>
       </c>
       <c r="D4" s="7">
-        <v>350831</v>
+        <v>332348</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>233</v>
@@ -3742,7 +3754,7 @@
         <v>799</v>
       </c>
       <c r="I4" s="7">
-        <v>479858</v>
+        <v>431794</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>236</v>
@@ -3757,16 +3769,16 @@
         <v>1239</v>
       </c>
       <c r="N4" s="7">
-        <v>830690</v>
+        <v>764142</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>239</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>95</v>
+        <v>240</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3778,46 +3790,46 @@
         <v>233</v>
       </c>
       <c r="D5" s="7">
-        <v>174889</v>
+        <v>167398</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="H5" s="7">
         <v>568</v>
       </c>
       <c r="I5" s="7">
-        <v>318516</v>
+        <v>289193</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="M5" s="7">
         <v>801</v>
       </c>
       <c r="N5" s="7">
-        <v>493404</v>
+        <v>456592</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>104</v>
+        <v>250</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3829,7 +3841,7 @@
         <v>673</v>
       </c>
       <c r="D6" s="7">
-        <v>525720</v>
+        <v>499746</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>30</v>
@@ -3844,7 +3856,7 @@
         <v>1367</v>
       </c>
       <c r="I6" s="7">
-        <v>798374</v>
+        <v>720987</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -3859,7 +3871,7 @@
         <v>2040</v>
       </c>
       <c r="N6" s="7">
-        <v>1324094</v>
+        <v>1220734</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>30</v>
@@ -3882,46 +3894,46 @@
         <v>1433</v>
       </c>
       <c r="D7" s="7">
-        <v>1618451</v>
+        <v>1754258</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="H7" s="7">
         <v>1918</v>
       </c>
       <c r="I7" s="7">
-        <v>1497103</v>
+        <v>1435570</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>11</v>
+        <v>256</v>
       </c>
       <c r="M7" s="7">
         <v>3351</v>
       </c>
       <c r="N7" s="7">
-        <v>3115553</v>
+        <v>3189827</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3933,46 +3945,46 @@
         <v>515</v>
       </c>
       <c r="D8" s="7">
-        <v>467135</v>
+        <v>456643</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="H8" s="7">
         <v>919</v>
       </c>
       <c r="I8" s="7">
-        <v>685733</v>
+        <v>740148</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>21</v>
+        <v>264</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>261</v>
+        <v>265</v>
       </c>
       <c r="M8" s="7">
         <v>1434</v>
       </c>
       <c r="N8" s="7">
-        <v>1152868</v>
+        <v>1196791</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>262</v>
+        <v>266</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>263</v>
+        <v>267</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>264</v>
+        <v>268</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3984,7 +3996,7 @@
         <v>1948</v>
       </c>
       <c r="D9" s="7">
-        <v>2085586</v>
+        <v>2210901</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>30</v>
@@ -3999,7 +4011,7 @@
         <v>2837</v>
       </c>
       <c r="I9" s="7">
-        <v>2182836</v>
+        <v>2175718</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -4014,7 +4026,7 @@
         <v>4785</v>
       </c>
       <c r="N9" s="7">
-        <v>4268421</v>
+        <v>4386618</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -4037,46 +4049,46 @@
         <v>516</v>
       </c>
       <c r="D10" s="7">
-        <v>513515</v>
+        <v>488381</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>265</v>
+        <v>269</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>266</v>
+        <v>270</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>267</v>
+        <v>271</v>
       </c>
       <c r="H10" s="7">
         <v>700</v>
       </c>
       <c r="I10" s="7">
-        <v>513333</v>
+        <v>473788</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>268</v>
+        <v>272</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>270</v>
+        <v>274</v>
       </c>
       <c r="M10" s="7">
         <v>1216</v>
       </c>
       <c r="N10" s="7">
-        <v>1026848</v>
+        <v>962168</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>271</v>
+        <v>275</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>272</v>
+        <v>276</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>273</v>
+        <v>277</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4088,46 +4100,46 @@
         <v>156</v>
       </c>
       <c r="D11" s="7">
-        <v>150771</v>
+        <v>149923</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>275</v>
+        <v>279</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c r="H11" s="7">
         <v>294</v>
       </c>
       <c r="I11" s="7">
-        <v>193816</v>
+        <v>180428</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>277</v>
+        <v>281</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>278</v>
+        <v>282</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>279</v>
+        <v>283</v>
       </c>
       <c r="M11" s="7">
         <v>450</v>
       </c>
       <c r="N11" s="7">
-        <v>344587</v>
+        <v>330351</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>280</v>
+        <v>284</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>281</v>
+        <v>285</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>282</v>
+        <v>286</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4139,7 +4151,7 @@
         <v>672</v>
       </c>
       <c r="D12" s="7">
-        <v>664286</v>
+        <v>638304</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -4154,7 +4166,7 @@
         <v>994</v>
       </c>
       <c r="I12" s="7">
-        <v>707149</v>
+        <v>654216</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -4169,7 +4181,7 @@
         <v>1666</v>
       </c>
       <c r="N12" s="7">
-        <v>1371435</v>
+        <v>1292519</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -4192,46 +4204,46 @@
         <v>2389</v>
       </c>
       <c r="D13" s="7">
-        <v>2482797</v>
+        <v>2574986</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>283</v>
+        <v>287</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>284</v>
+        <v>288</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>285</v>
+        <v>289</v>
       </c>
       <c r="H13" s="7">
         <v>3417</v>
       </c>
       <c r="I13" s="7">
-        <v>2490295</v>
+        <v>2341151</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>286</v>
+        <v>290</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>287</v>
+        <v>291</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>288</v>
+        <v>292</v>
       </c>
       <c r="M13" s="7">
         <v>5806</v>
       </c>
       <c r="N13" s="7">
-        <v>4973091</v>
+        <v>4916137</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>289</v>
+        <v>293</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>290</v>
+        <v>294</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>291</v>
+        <v>295</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4243,46 +4255,46 @@
         <v>904</v>
       </c>
       <c r="D14" s="7">
-        <v>792795</v>
+        <v>773965</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>292</v>
+        <v>296</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>293</v>
+        <v>297</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>294</v>
+        <v>298</v>
       </c>
       <c r="H14" s="7">
         <v>1781</v>
       </c>
       <c r="I14" s="7">
-        <v>1198064</v>
+        <v>1209769</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>295</v>
+        <v>299</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>296</v>
+        <v>300</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>297</v>
+        <v>301</v>
       </c>
       <c r="M14" s="7">
         <v>2685</v>
       </c>
       <c r="N14" s="7">
-        <v>1990859</v>
+        <v>1983734</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>298</v>
+        <v>302</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>299</v>
+        <v>303</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>300</v>
+        <v>304</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4294,7 +4306,7 @@
         <v>3293</v>
       </c>
       <c r="D15" s="7">
-        <v>3275592</v>
+        <v>3348951</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -4309,7 +4321,7 @@
         <v>5198</v>
       </c>
       <c r="I15" s="7">
-        <v>3688359</v>
+        <v>3550920</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -4324,7 +4336,7 @@
         <v>8491</v>
       </c>
       <c r="N15" s="7">
-        <v>6963950</v>
+        <v>6899871</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
